--- a/data.xlsx
+++ b/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26611"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3BFB64B-7996-489D-9B06-E1B3C0B70E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9DEE3AE-A300-4F90-83E7-EE3C31B4A393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="normalized_data" sheetId="12" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="8989" r:id="rId5"/>
+    <pivotCache cacheId="9384" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="71">
   <si>
     <t>Country Name</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Births attended by skilled health staff (% of total)</t>
   </si>
   <si>
-    <t>CO2 emissions (metric tons per capita)</t>
+    <t>CO2 emissions (metric tons per capita)(MAX)</t>
   </si>
   <si>
     <t>Foreign direct investment, net inflows (BoP, current US$)</t>
@@ -69,7 +69,7 @@
     <t>Population growth (annual %)</t>
   </si>
   <si>
-    <t>Poverty headcount ratio at $2,15 a day</t>
+    <t>Poverty headcount ratio at $2,15 a day MAX</t>
   </si>
   <si>
     <t>Revenue, excluding grants</t>
@@ -216,6 +216,9 @@
     <t>Uruguay</t>
   </si>
   <si>
+    <t>CO2 emissions (metric tons per capita)</t>
+  </si>
+  <si>
     <t>Poverty headcount ratio at $2,15 a day (2017 PPP) (% of population)</t>
   </si>
   <si>
@@ -241,6 +244,9 @@
   </si>
   <si>
     <t>Monaco</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at $2,15 a day</t>
   </si>
 </sst>
 </file>
@@ -12553,7 +12559,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C792213D-BFFD-44B9-8EF0-624985067898}" name="PivotTable1" cacheId="8989" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C792213D-BFFD-44B9-8EF0-624985067898}" name="PivotTable1" cacheId="9384" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A1:R50" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending">
@@ -13221,24 +13227,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7914BB-89FE-4826-8219-C48CE4787F91}">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection sqref="A1:N1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="39.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="52.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="33.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="36.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -13298,7 +13304,7 @@
         <v>0.1469818500756836</v>
       </c>
       <c r="D2">
-        <v>8.3182843936693701E-2</v>
+        <v>0.91681715606330627</v>
       </c>
       <c r="E2">
         <v>2.7278625666236006E-3</v>
@@ -13322,7 +13328,7 @@
         <v>0.44293900700515521</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -13342,7 +13348,7 @@
         <v>0.98303837938010152</v>
       </c>
       <c r="D3">
-        <v>9.0846553876916092E-2</v>
+        <v>0.90915344612308391</v>
       </c>
       <c r="E3">
         <v>2.2206139328332503E-2</v>
@@ -13366,7 +13372,7 @@
         <v>0.31187478182332817</v>
       </c>
       <c r="L3">
-        <v>8.4151472650771386E-2</v>
+        <v>0.91584852734922861</v>
       </c>
       <c r="M3">
         <v>0.42279793873147947</v>
@@ -13386,7 +13392,7 @@
         <v>0.85133471968764596</v>
       </c>
       <c r="D4">
-        <v>0.44436638345421686</v>
+        <v>0.55563361654578314</v>
       </c>
       <c r="E4">
         <v>0.12921989760762023</v>
@@ -13410,7 +13416,7 @@
         <v>0.36118481194147456</v>
       </c>
       <c r="L4">
-        <v>2.1037868162692847E-2</v>
+        <v>0.97896213183730718</v>
       </c>
       <c r="M4">
         <v>0.53508771869527072</v>
@@ -13430,7 +13436,7 @@
         <v>0.98417009718626636</v>
       </c>
       <c r="D5">
-        <v>0.18892143657676949</v>
+        <v>0.81107856342323048</v>
       </c>
       <c r="E5">
         <v>1.9474722443843847E-2</v>
@@ -13454,7 +13460,7 @@
         <v>0.25634679231746343</v>
       </c>
       <c r="L5">
-        <v>5.7503506311360447E-2</v>
+        <v>0.94249649368863953</v>
       </c>
       <c r="M5">
         <v>0.94160023590597985</v>
@@ -13474,7 +13480,7 @@
         <v>0.85840795597617747</v>
       </c>
       <c r="D6">
-        <v>0.63110312222462994</v>
+        <v>0.36889687777537006</v>
       </c>
       <c r="E6">
         <v>2.1286500519840088E-3</v>
@@ -13498,7 +13504,7 @@
         <v>0.58769502391913375</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -13515,10 +13521,10 @@
         <v>3.7813468197283248E-2</v>
       </c>
       <c r="C7">
-        <v>0.52016579665860319</v>
+        <v>0.85840795597617747</v>
       </c>
       <c r="D7">
-        <v>0.21641404968349073</v>
+        <v>0.78358595031650924</v>
       </c>
       <c r="E7">
         <v>0.11985049824014142</v>
@@ -13542,7 +13548,7 @@
         <v>0.22630210560549047</v>
       </c>
       <c r="L7">
-        <v>1.1220196353436185E-2</v>
+        <v>0.98877980364656382</v>
       </c>
       <c r="M7">
         <v>0.84119062852240079</v>
@@ -13562,7 +13568,7 @@
         <v>0.84638345428567374</v>
       </c>
       <c r="D8">
-        <v>3.4298005025140563E-2</v>
+        <v>0.96570199497485942</v>
       </c>
       <c r="E8">
         <v>0.19753094455546691</v>
@@ -13586,7 +13592,7 @@
         <v>0.271283014150973</v>
       </c>
       <c r="L8">
-        <v>0.55119214586255261</v>
+        <v>0.44880785413744739</v>
       </c>
       <c r="M8">
         <v>0.60375010098274173</v>
@@ -13606,7 +13612,7 @@
         <v>0.2938222354255966</v>
       </c>
       <c r="D9">
-        <v>0.14321206958312541</v>
+        <v>0.85678793041687462</v>
       </c>
       <c r="E9">
         <v>4.7964653298088007E-3</v>
@@ -13630,7 +13636,7 @@
         <v>2.8868652765443995E-2</v>
       </c>
       <c r="L9">
-        <v>0.17251051893408137</v>
+        <v>0.82748948106591858</v>
       </c>
       <c r="M9">
         <v>0.71314484804463429</v>
@@ -13650,7 +13656,7 @@
         <v>0.97893590233275329</v>
       </c>
       <c r="D10">
-        <v>0.4389737714395236</v>
+        <v>0.56102622856047635</v>
       </c>
       <c r="E10">
         <v>0.14306302245054206</v>
@@ -13674,7 +13680,7 @@
         <v>0.31819046763811198</v>
       </c>
       <c r="L10">
-        <v>2.1037868162692843E-2</v>
+        <v>0.97896213183730718</v>
       </c>
       <c r="M10">
         <v>0.38558665412995757</v>
@@ -13694,7 +13700,7 @@
         <v>0.43585282009930831</v>
       </c>
       <c r="D11">
-        <v>0.18750354350101792</v>
+        <v>0.81249645649898206</v>
       </c>
       <c r="E11">
         <v>0.70905206567370538</v>
@@ -13718,7 +13724,7 @@
         <v>0.22499453767675151</v>
       </c>
       <c r="L11">
-        <v>0.11500701262272089</v>
+        <v>0.88499298737727905</v>
       </c>
       <c r="M11">
         <v>0.2865373999808406</v>
@@ -13738,7 +13744,7 @@
         <v>0.7185842210244876</v>
       </c>
       <c r="D12">
-        <v>8.7748186019802693E-2</v>
+        <v>0.91225181398019728</v>
       </c>
       <c r="E12">
         <v>4.0261232074799928E-3</v>
@@ -13762,7 +13768,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.1711079943899017E-2</v>
+        <v>0.93828892005610098</v>
       </c>
       <c r="M12">
         <v>0.81118674364443366</v>
@@ -13782,7 +13788,7 @@
         <v>0.85925674433080101</v>
       </c>
       <c r="D13">
-        <v>3.8965155232760132E-2</v>
+        <v>0.96103484476723988</v>
       </c>
       <c r="E13">
         <v>4.3495241758643374E-3</v>
@@ -13806,7 +13812,7 @@
         <v>0.1645600633751835</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -13826,7 +13832,7 @@
         <v>0.68030386623095529</v>
       </c>
       <c r="D14">
-        <v>0.1482894033163234</v>
+        <v>0.85171059668367666</v>
       </c>
       <c r="E14">
         <v>1.5596476881884026E-2</v>
@@ -13850,7 +13856,7 @@
         <v>0.23225679566282947</v>
       </c>
       <c r="L14">
-        <v>2.5245441795231419E-2</v>
+        <v>0.97475455820476853</v>
       </c>
       <c r="M14">
         <v>0.85340139718030927</v>
@@ -13870,7 +13876,7 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.683102765904555E-2</v>
+        <v>0.96316897234095444</v>
       </c>
       <c r="E15">
         <v>1.827012632916817E-2</v>
@@ -13894,7 +13900,7 @@
         <v>0.45987055174125602</v>
       </c>
       <c r="L15">
-        <v>6.8723702664796646E-2</v>
+        <v>0.93127629733520334</v>
       </c>
       <c r="M15">
         <v>0.14742309567141701</v>
@@ -13914,7 +13920,7 @@
         <v>0.99803364031178832</v>
       </c>
       <c r="D16">
-        <v>0.21287678549853764</v>
+        <v>0.78712321450146239</v>
       </c>
       <c r="E16">
         <v>4.6587280724752808E-2</v>
@@ -13938,7 +13944,7 @@
         <v>0.19293422960741266</v>
       </c>
       <c r="L16">
-        <v>7.0126227208976155E-3</v>
+        <v>0.99298737727910236</v>
       </c>
       <c r="M16">
         <v>0.78584356692975121</v>
@@ -13958,7 +13964,7 @@
         <v>0.84015900635176621</v>
       </c>
       <c r="D17">
-        <v>0.10842435390512573</v>
+        <v>0.89157564609487427</v>
       </c>
       <c r="E17">
         <v>0.12511525114497657</v>
@@ -13982,7 +13988,7 @@
         <v>0.20670067967009995</v>
       </c>
       <c r="L17">
-        <v>7.0126227208976155E-3</v>
+        <v>0.99298737727910236</v>
       </c>
       <c r="M17">
         <v>0.93073878478092409</v>
@@ -14002,7 +14008,7 @@
         <v>0.82771011048395071</v>
       </c>
       <c r="D18">
-        <v>0.23494063964655215</v>
+        <v>0.7650593603534479</v>
       </c>
       <c r="E18">
         <v>0.25559687380855822</v>
@@ -14026,7 +14032,7 @@
         <v>0.21106850249769016</v>
       </c>
       <c r="L18">
-        <v>2.8050490883590466E-3</v>
+        <v>0.9971949509116409</v>
       </c>
       <c r="M18">
         <v>0.61270163762588714</v>
@@ -14046,7 +14052,7 @@
         <v>0.71871153927768106</v>
       </c>
       <c r="D19">
-        <v>0.15354870819323888</v>
+        <v>0.84645129180676115</v>
       </c>
       <c r="E19">
         <v>9.07323404448028E-3</v>
@@ -14070,7 +14076,7 @@
         <v>7.1253644477852041E-2</v>
       </c>
       <c r="L19">
-        <v>0.10378681626928472</v>
+        <v>0.89621318373071523</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -14090,7 +14096,7 @@
         <v>0.22733381431340102</v>
       </c>
       <c r="D20">
-        <v>1.6844911887652299E-2</v>
+        <v>0.98315508811234775</v>
       </c>
       <c r="E20">
         <v>0.12839812150358579</v>
@@ -14102,7 +14108,7 @@
         <v>0.92573426597086816</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.26343407889927001</v>
       </c>
       <c r="I20">
         <v>0.31317266447635694</v>
@@ -14114,7 +14120,7 @@
         <v>0.32231062485345341</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0.1783354167819266</v>
@@ -14134,7 +14140,7 @@
         <v>0.52016579665860319</v>
       </c>
       <c r="D21">
-        <v>2.5832215920978369E-2</v>
+        <v>0.9741677840790216</v>
       </c>
       <c r="E21">
         <v>5.7274014903136015E-2</v>
@@ -14158,7 +14164,7 @@
         <v>0.30626481218163681</v>
       </c>
       <c r="L21">
-        <v>0.84151472650771386</v>
+        <v>0.15848527349228614</v>
       </c>
       <c r="M21">
         <v>0.27206912632762054</v>
@@ -14178,7 +14184,7 @@
         <v>0.63227158774349612</v>
       </c>
       <c r="D22">
-        <v>0.19532024044508153</v>
+        <v>0.80467975955491844</v>
       </c>
       <c r="E22">
         <v>4.5408290962488614E-2</v>
@@ -14202,7 +14208,7 @@
         <v>0.44020401079806698</v>
       </c>
       <c r="L22">
-        <v>3.7868162692847131E-2</v>
+        <v>0.9621318373071529</v>
       </c>
       <c r="M22">
         <v>0.67287143447119047</v>
@@ -14222,7 +14228,7 @@
         <v>0.85968113850811279</v>
       </c>
       <c r="D23">
-        <v>0.13184235590146781</v>
+        <v>0.86815764409853213</v>
       </c>
       <c r="E23">
         <v>6.5893193398073202E-2</v>
@@ -14246,7 +14252,7 @@
         <v>0.31234660250462543</v>
       </c>
       <c r="L23">
-        <v>0.15147265077138852</v>
+        <v>0.8485273492286115</v>
       </c>
       <c r="M23">
         <v>0.85366771359456639</v>
@@ -14266,7 +14272,7 @@
         <v>0.85953967378234208</v>
       </c>
       <c r="D24">
-        <v>0.24444724558326383</v>
+        <v>0.75555275441673619</v>
       </c>
       <c r="E24">
         <v>8.2676658537664816E-2</v>
@@ -14275,7 +14281,7 @@
         <v>0.2515491906940287</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.52132368525018002</v>
       </c>
       <c r="H24">
         <v>0.47138530625032626</v>
@@ -14290,7 +14296,7 @@
         <v>0.12737834589528135</v>
       </c>
       <c r="L24">
-        <v>9.8176718092566635E-3</v>
+        <v>0.99018232819074337</v>
       </c>
       <c r="M24">
         <v>0.42998301514486714</v>
@@ -14310,7 +14316,7 @@
         <v>1.2024501690503476E-2</v>
       </c>
       <c r="D25">
-        <v>0.3277146447609674</v>
+        <v>0.67228535523903266</v>
       </c>
       <c r="E25">
         <v>3.4588439206303022E-2</v>
@@ -14334,7 +14340,7 @@
         <v>0.21484532932443376</v>
       </c>
       <c r="L25">
-        <v>5.6100981767180933E-3</v>
+        <v>0.99438990182328191</v>
       </c>
       <c r="M25">
         <v>0.57080720261721862</v>
@@ -14354,7 +14360,7 @@
         <v>0.85642744981538843</v>
       </c>
       <c r="D26">
-        <v>0.64099516858374006</v>
+        <v>0.35900483141625994</v>
       </c>
       <c r="E26">
         <v>2.186127131613868E-4</v>
@@ -14378,7 +14384,7 @@
         <v>0.74067229611075036</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -14398,7 +14404,7 @@
         <v>0.88127264496596769</v>
       </c>
       <c r="D27">
-        <v>0.45459188590850597</v>
+        <v>0.54540811409149403</v>
       </c>
       <c r="E27">
         <v>0.1083216171004059</v>
@@ -14422,7 +14428,7 @@
         <v>0.47118156680024764</v>
       </c>
       <c r="L27">
-        <v>1.8232819074333804E-2</v>
+        <v>0.98176718092566617</v>
       </c>
       <c r="M27">
         <v>0.86248998628796791</v>
@@ -14439,19 +14445,19 @@
         <v>4.1848112382514999E-2</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="D28">
-        <v>8.4729112261199224E-2</v>
+        <v>0.91527088773880072</v>
       </c>
       <c r="E28">
         <v>7.9959402818983172E-3</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1.5214250084214599E-2</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>1.6373829999999999E-2</v>
       </c>
       <c r="H28">
         <v>0.28661688684663983</v>
@@ -14466,7 +14472,7 @@
         <v>0.51159864339412986</v>
       </c>
       <c r="L28">
-        <v>1.5427769985974758E-2</v>
+        <v>0.98457223001402527</v>
       </c>
       <c r="M28">
         <v>0.78876450108398821</v>
@@ -14486,7 +14492,7 @@
         <v>0.55524904864971925</v>
       </c>
       <c r="D29">
-        <v>8.2229128011971492E-2</v>
+        <v>0.91777087198802854</v>
       </c>
       <c r="E29">
         <v>0.10434602534841164</v>
@@ -14510,7 +14516,7 @@
         <v>0.30712015929256459</v>
       </c>
       <c r="L29">
-        <v>0.17671809256661991</v>
+        <v>0.82328190743338014</v>
       </c>
       <c r="M29">
         <v>0.40703220731615058</v>
@@ -14530,7 +14536,7 @@
         <v>0.96238452941759023</v>
       </c>
       <c r="D30">
-        <v>0.23911282283790788</v>
+        <v>0.76088717716209209</v>
       </c>
       <c r="E30">
         <v>0.74005897589358105</v>
@@ -14554,7 +14560,7 @@
         <v>0.23066154388972493</v>
       </c>
       <c r="L30">
-        <v>9.8176718092566635E-3</v>
+        <v>0.99018232819074337</v>
       </c>
       <c r="M30">
         <v>0.83528678295543046</v>
@@ -14574,7 +14580,7 @@
         <v>0.99279944545827492</v>
       </c>
       <c r="D31">
-        <v>0.18815067870705476</v>
+        <v>0.81184932129294518</v>
       </c>
       <c r="E31">
         <v>2.6554489371428836E-2</v>
@@ -14598,7 +14604,7 @@
         <v>0.28063003157218502</v>
       </c>
       <c r="L31">
-        <v>2.1037868162692847E-2</v>
+        <v>0.97896213183730718</v>
       </c>
       <c r="M31">
         <v>0.9908451191956783</v>
@@ -14618,10 +14624,10 @@
         <v>0.69105518538952315</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>0.72343442091999999</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1.65522833711788E-2</v>
       </c>
       <c r="F32">
         <v>1.2518754022014433E-3</v>
@@ -14642,7 +14648,7 @@
         <v>0.36388374957599035</v>
       </c>
       <c r="L32">
-        <v>0.17812061711079946</v>
+        <v>0.82187938288920059</v>
       </c>
       <c r="M32">
         <v>0.36181649212969863</v>
@@ -14662,7 +14668,7 @@
         <v>0.9181060702513828</v>
       </c>
       <c r="D33">
-        <v>1.8702907752243363E-2</v>
+        <v>0.98129709224775663</v>
       </c>
       <c r="E33">
         <v>1.6566114151317934E-2</v>
@@ -14686,7 +14692,7 @@
         <v>0.36620295837477729</v>
       </c>
       <c r="L33">
-        <v>0.55259467040673216</v>
+        <v>0.44740532959326784</v>
       </c>
       <c r="M33">
         <v>0.41828291103445397</v>
@@ -14706,7 +14712,7 @@
         <v>0.99930682284372374</v>
       </c>
       <c r="D34">
-        <v>0.1076670196989693</v>
+        <v>0.8923329803010307</v>
       </c>
       <c r="E34">
         <v>2.4125616330664724E-2</v>
@@ -14730,7 +14736,7 @@
         <v>0.17395973886902372</v>
       </c>
       <c r="L34">
-        <v>5.0490883590462832E-2</v>
+        <v>0.94950911640953717</v>
       </c>
       <c r="M34">
         <v>0.80241721232683094</v>
@@ -14750,7 +14756,7 @@
         <v>0.7190652010921077</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0.48476032896488902</v>
       </c>
       <c r="E35">
         <v>1.5466363543368952E-3</v>
@@ -14774,7 +14780,7 @@
         <v>1</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -14794,7 +14800,7 @@
         <v>0.70774802303045736</v>
       </c>
       <c r="D36">
-        <v>0.45161559196215334</v>
+        <v>0.5483844080378466</v>
       </c>
       <c r="E36">
         <v>2.0915212556509539E-2</v>
@@ -14818,7 +14824,7 @@
         <v>0.45031023337101639</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36">
         <v>0.57058878186274908</v>
@@ -14838,7 +14844,7 @@
         <v>0.99817510503755869</v>
       </c>
       <c r="D37">
-        <v>0.21751870567985279</v>
+        <v>0.78248129432014724</v>
       </c>
       <c r="E37">
         <v>0.2541199940274102</v>
@@ -14862,7 +14868,7 @@
         <v>0.30875195598815086</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37">
         <v>0.39814915100793841</v>
@@ -14882,7 +14888,7 @@
         <v>7.3561657400727318E-3</v>
       </c>
       <c r="D38">
-        <v>0.20074139112839115</v>
+        <v>0.79925860887160882</v>
       </c>
       <c r="E38">
         <v>2.3414498253093247E-2</v>
@@ -14906,7 +14912,7 @@
         <v>0.34240451182100307</v>
       </c>
       <c r="L38">
-        <v>0.28751753155680226</v>
+        <v>0.71248246844319774</v>
       </c>
       <c r="M38">
         <v>0.54251170210562483</v>
@@ -14926,7 +14932,7 @@
         <v>0.43585282009930831</v>
       </c>
       <c r="D39">
-        <v>0.12810712719805975</v>
+        <v>0.87189287280194028</v>
       </c>
       <c r="E39">
         <v>0.11230113663462393</v>
@@ -14950,7 +14956,7 @@
         <v>0.20625687307180043</v>
       </c>
       <c r="L39">
-        <v>9.9579242636746168E-2</v>
+        <v>0.90042075736325389</v>
       </c>
       <c r="M39">
         <v>0.60431327486072384</v>
@@ -14970,7 +14976,7 @@
         <v>0.86545420079446589</v>
       </c>
       <c r="D40">
-        <v>8.2506195512042343E-2</v>
+        <v>0.9174938044879577</v>
       </c>
       <c r="E40">
         <v>5.8042284363573053E-2</v>
@@ -14994,7 +15000,7 @@
         <v>0.30646912799293907</v>
       </c>
       <c r="L40">
-        <v>5.1893408134642355E-2</v>
+        <v>0.94810659186535762</v>
       </c>
       <c r="M40">
         <v>0.69640606437325003</v>
@@ -15014,7 +15020,7 @@
         <v>0.77876331536731269</v>
       </c>
       <c r="D41">
-        <v>0.10897860865683238</v>
+        <v>0.8910213913431676</v>
       </c>
       <c r="E41">
         <v>0.23034844606026661</v>
@@ -15038,7 +15044,7 @@
         <v>0.29740917723595778</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41">
         <v>0.37909507836255163</v>
@@ -15058,7 +15064,7 @@
         <v>1.1317178061650331E-2</v>
       </c>
       <c r="D42">
-        <v>4.3024913775297019E-2</v>
+        <v>0.95697508622470295</v>
       </c>
       <c r="E42">
         <v>1.11805128472901E-3</v>
@@ -15082,7 +15088,7 @@
         <v>0.31150407992223256</v>
       </c>
       <c r="L42">
-        <v>1.4025245441795233E-3</v>
+        <v>0.99859747545582045</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -15102,7 +15108,7 @@
         <v>0.70237236345117338</v>
       </c>
       <c r="D43">
-        <v>0.10598955260384993</v>
+        <v>0.8940104473961501</v>
       </c>
       <c r="E43">
         <v>3.6373767893628076E-2</v>
@@ -15126,7 +15132,7 @@
         <v>0.35546735401314195</v>
       </c>
       <c r="L43">
-        <v>1.9635343618513327E-2</v>
+        <v>0.98036465638148662</v>
       </c>
       <c r="M43">
         <v>0.64760819770005384</v>
@@ -15146,7 +15152,7 @@
         <v>0.43486256701891385</v>
       </c>
       <c r="D44">
-        <v>0.60523996603511088</v>
+        <v>0.39476003396488912</v>
       </c>
       <c r="E44">
         <v>3.7676339831457392E-2</v>
@@ -15170,7 +15176,7 @@
         <v>0.28558200205509077</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44">
         <v>8.4076871586018356E-2</v>
@@ -15190,7 +15196,7 @@
         <v>0.90603912914314799</v>
       </c>
       <c r="D45">
-        <v>0.14632030535689675</v>
+        <v>0.85367969464310323</v>
       </c>
       <c r="E45">
         <v>0.28353579665064554</v>
@@ -15214,7 +15220,7 @@
         <v>0.2476136573493305</v>
       </c>
       <c r="L45">
-        <v>3.5063113604488085E-2</v>
+        <v>0.96493688639551189</v>
       </c>
       <c r="M45">
         <v>0.71680929694847817</v>
@@ -15234,7 +15240,7 @@
         <v>0.85105179023610467</v>
       </c>
       <c r="D46">
-        <v>0.43118492782198703</v>
+        <v>0.56881507217801297</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -15258,7 +15264,7 @@
         <v>0.24836924959311987</v>
       </c>
       <c r="L46">
-        <v>0.10939691444600282</v>
+        <v>0.89060308555399714</v>
       </c>
       <c r="M46">
         <v>0.39369435995769542</v>
@@ -15278,7 +15284,7 @@
         <v>0.99944828756949455</v>
       </c>
       <c r="D47">
-        <v>2.4710103600364849E-2</v>
+        <v>0.97528989639963515</v>
       </c>
       <c r="E47">
         <v>5.280080009600163E-3</v>
@@ -15302,7 +15308,7 @@
         <v>0.18610222659291653</v>
       </c>
       <c r="L47">
-        <v>1.6830294530154277E-2</v>
+        <v>0.98316970546984572</v>
       </c>
       <c r="M47">
         <v>0.59049099256394044</v>
@@ -15353,7 +15359,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
@@ -15377,10 +15383,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>13</v>
@@ -17450,10 +17456,10 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -17467,13 +17473,13 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -17497,19 +17503,19 @@
         <v>10</v>
       </c>
       <c r="N2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q2" t="s">
         <v>13</v>
       </c>
       <c r="R2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -20090,7 +20096,7 @@
     </row>
     <row r="49" spans="1:18">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B49" s="2">
         <v>0</v>
@@ -20146,7 +20152,7 @@
     </row>
     <row r="50" spans="1:18">
       <c r="A50" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B50" s="2">
         <v>166.01610950707425</v>
@@ -20207,10 +20213,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D65A12-8B9A-4C59-96D3-9C8F36B1BEEC}">
-  <dimension ref="A1:AA50"/>
+  <dimension ref="A1:AC50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AA47" sqref="A1:AA47"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AC1" sqref="A1:AC47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -20220,31 +20226,30 @@
     <col min="3" max="3" width="52.140625" customWidth="1"/>
     <col min="4" max="4" width="45" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="45" customWidth="1"/>
-    <col min="6" max="6" width="35.5703125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="35.5703125" customWidth="1"/>
+    <col min="6" max="7" width="35.5703125" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="50.7109375" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="50.7109375" customWidth="1"/>
-    <col min="10" max="10" width="42" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="42" customWidth="1"/>
-    <col min="12" max="12" width="52.28515625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="52.28515625" customWidth="1"/>
-    <col min="14" max="14" width="40.28515625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="40.28515625" customWidth="1"/>
-    <col min="16" max="16" width="53.5703125" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="41.85546875" customWidth="1"/>
-    <col min="18" max="18" width="39.42578125" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="39.42578125" customWidth="1"/>
-    <col min="20" max="20" width="52.42578125" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="52.42578125" customWidth="1"/>
-    <col min="22" max="22" width="40.5703125" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="33.7109375" customWidth="1"/>
-    <col min="24" max="24" width="27.7109375" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="27.7109375" customWidth="1"/>
-    <col min="26" max="26" width="37.140625" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="50.7109375" customWidth="1"/>
+    <col min="11" max="11" width="42" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="42" customWidth="1"/>
+    <col min="13" max="13" width="52.28515625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="52.28515625" customWidth="1"/>
+    <col min="15" max="15" width="40.28515625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="40.28515625" customWidth="1"/>
+    <col min="17" max="17" width="53.5703125" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="41.85546875" customWidth="1"/>
+    <col min="19" max="19" width="39.42578125" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="39.42578125" customWidth="1"/>
+    <col min="21" max="21" width="52.42578125" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="52.42578125" customWidth="1"/>
+    <col min="23" max="23" width="40.5703125" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="33.7109375" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="27.7109375" hidden="1" customWidth="1"/>
+    <col min="26" max="27" width="27.7109375" customWidth="1"/>
+    <col min="28" max="28" width="37.140625" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="37.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:29">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -20261,73 +20266,79 @@
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="Y1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="Z1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:29">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -20355,75 +20366,83 @@
       <c r="H2" s="4">
         <v>1365376359.7635143</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="4">
+        <f xml:space="preserve"> 1 - G2</f>
+        <v>0.91681715606330627</v>
+      </c>
+      <c r="J2" s="7">
         <f>(H2-$H$50) / ($H$49-$H$50)</f>
         <v>2.7278625666236006E-3</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="4">
         <v>174934154862.72324</v>
       </c>
-      <c r="K2" s="7">
-        <f>(J2-$J$50) / ($J$49-$J$50)</f>
+      <c r="L2" s="7">
+        <f>(K2-$K$50) / ($K$49-$K$50)</f>
         <v>8.2098861873324477E-3</v>
       </c>
-      <c r="L2" s="4">
+      <c r="M2" s="4">
         <v>2.5625000000590386</v>
       </c>
-      <c r="M2" s="7">
-        <f>(L2-$L$50) / ($L$49-$L$50)</f>
+      <c r="N2" s="7">
+        <f>(M2-$M$50) / ($M$49-$M$50)</f>
         <v>0.21647680590247625</v>
       </c>
-      <c r="N2" s="4">
+      <c r="O2" s="4">
         <v>4402.2222222222226</v>
       </c>
-      <c r="O2" s="7">
-        <f>(N2-$N$50) / ($N$49-$N$50)</f>
+      <c r="P2" s="7">
+        <f>(O2-$O$50) / ($O$49-$O$50)</f>
         <v>3.0572816040937811E-2</v>
       </c>
-      <c r="P2" s="4">
+      <c r="Q2" s="4">
         <v>37.676550037772031</v>
       </c>
-      <c r="Q2" s="7">
-        <f>(P2-$P$50) / ($P$49-$P$50)</f>
+      <c r="R2" s="7">
+        <f>(Q2-$Q$50) / ($Q$49-$Q$50)</f>
         <v>0.54431883667079195</v>
       </c>
-      <c r="R2" s="4">
+      <c r="S2" s="4">
         <v>75.576888888888874</v>
       </c>
-      <c r="S2" s="4">
-        <f>(R2-$R$50) / ($R$49-$R$50)</f>
+      <c r="T2" s="4">
+        <f>(S2-$S$50) / ($S$49-$S$50)</f>
         <v>0.56940754708761288</v>
       </c>
-      <c r="T2" s="4">
+      <c r="U2" s="4">
         <v>1.8921194534532897</v>
       </c>
-      <c r="U2" s="4">
-        <f>(T2-$T$50) / ($T$49-$T$50)</f>
+      <c r="V2" s="4">
+        <f>(U2-$U$50) / ($U$49-$U$50)</f>
         <v>0.44293900700515521</v>
       </c>
-      <c r="V2" s="4">
+      <c r="W2" s="4">
         <v>0</v>
       </c>
-      <c r="W2" s="4">
-        <f>(V2-$V$50) / ($V$49-$V$50)</f>
+      <c r="X2" s="4">
+        <f>(W2-$W$50) / ($W$49-$W$50)</f>
         <v>0</v>
       </c>
-      <c r="X2" s="4">
+      <c r="Y2" s="4">
         <v>0</v>
       </c>
-      <c r="Y2" s="4">
-        <f>(X2-$X$50) / ($X$49-$X$50)</f>
+      <c r="Z2" s="4">
+        <f>1-X2</f>
+        <v>1</v>
+      </c>
+      <c r="AA2" s="4">
+        <f>(Y2-$Y$50) / ($Y$49-$Y$50)</f>
         <v>0</v>
       </c>
-      <c r="Z2" s="4">
+      <c r="AB2" s="4">
         <v>14.666666666666666</v>
       </c>
-      <c r="AA2">
-        <f>(Z2-$Z$50) / ($Z$49-$Z$50)</f>
+      <c r="AC2">
+        <f>(AB2-$AB$50) / ($AB$49-$AB$50)</f>
         <v>0.28827254859139545</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:29">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -20451,75 +20470,83 @@
       <c r="H3" s="4">
         <v>7921552508.0575104</v>
       </c>
-      <c r="I3" s="7">
-        <f t="shared" ref="I3:I47" si="3">(H3-$H$50) / ($H$49-$H$50)</f>
+      <c r="I3" s="4">
+        <f t="shared" ref="I3:I47" si="3" xml:space="preserve"> 1 - G3</f>
+        <v>0.90915344612308391</v>
+      </c>
+      <c r="J3" s="7">
+        <f t="shared" ref="J3:J47" si="4">(H3-$H$50) / ($H$49-$H$50)</f>
         <v>2.2206139328332503E-2</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K3" s="4">
         <v>524399561865.05859</v>
       </c>
-      <c r="K3" s="7">
-        <f t="shared" ref="K3:K47" si="4">(J3-$J$50) / ($J$49-$J$50)</f>
+      <c r="L3" s="7">
+        <f t="shared" ref="L3:L47" si="5">(K3-$K$50) / ($K$49-$K$50)</f>
         <v>2.5985321333851584E-2</v>
       </c>
-      <c r="L3" s="4">
+      <c r="M3" s="4">
         <v>4.5883090128833448</v>
       </c>
-      <c r="M3" s="7">
-        <f t="shared" ref="M3:M47" si="5">(L3-$L$50) / ($L$49-$L$50)</f>
+      <c r="N3" s="7">
+        <f t="shared" ref="N3:N47" si="6">(M3-$M$50) / ($M$49-$M$50)</f>
         <v>0.54286665690082747</v>
       </c>
-      <c r="N3" s="4">
+      <c r="O3" s="4">
         <v>11755.555555555555</v>
       </c>
-      <c r="O3" s="7">
-        <f t="shared" ref="O3:O47" si="6">(N3-$N$50) / ($N$49-$N$50)</f>
+      <c r="P3" s="7">
+        <f t="shared" ref="P3:P47" si="7">(O3-$O$50) / ($O$49-$O$50)</f>
         <v>0.1169651715315127</v>
       </c>
-      <c r="P3" s="4">
+      <c r="Q3" s="4">
         <v>23.101116498328068</v>
       </c>
-      <c r="Q3" s="7">
-        <f t="shared" ref="Q3:Q47" si="7">(P3-$P$50) / ($P$49-$P$50)</f>
+      <c r="R3" s="7">
+        <f t="shared" ref="R3:R47" si="8">(Q3-$Q$50) / ($Q$49-$Q$50)</f>
         <v>0.24450429576179944</v>
       </c>
-      <c r="R3" s="4">
+      <c r="S3" s="4">
         <v>76.523555555555546</v>
       </c>
-      <c r="S3" s="4">
-        <f t="shared" ref="S3:S47" si="8">(R3-$R$50) / ($R$49-$R$50)</f>
+      <c r="T3" s="4">
+        <f t="shared" ref="T3:T47" si="9">(S3-$S$50) / ($S$49-$S$50)</f>
         <v>0.61756566320254958</v>
       </c>
-      <c r="T3" s="4">
+      <c r="U3" s="4">
         <v>1.035293100349987</v>
       </c>
-      <c r="U3" s="4">
-        <f t="shared" ref="U3:U47" si="9">(T3-$T$50) / ($T$49-$T$50)</f>
+      <c r="V3" s="4">
+        <f t="shared" ref="V3:V47" si="10">(U3-$U$50) / ($U$49-$U$50)</f>
         <v>0.31187478182332817</v>
       </c>
-      <c r="V3" s="4">
+      <c r="W3" s="4">
         <v>0.66666666666666663</v>
       </c>
-      <c r="W3" s="4">
-        <f t="shared" ref="W3:W47" si="10">(V3-$V$50) / ($V$49-$V$50)</f>
+      <c r="X3" s="4">
+        <f t="shared" ref="X3:X47" si="11">(W3-$W$50) / ($W$49-$W$50)</f>
         <v>8.4151472650771386E-2</v>
       </c>
-      <c r="X3" s="4">
+      <c r="Y3" s="4">
         <v>19.846544935512224</v>
       </c>
-      <c r="Y3" s="4">
-        <f t="shared" ref="Y3:Y47" si="11">(X3-$X$50) / ($X$49-$X$50)</f>
+      <c r="Z3" s="4">
+        <f t="shared" ref="Z3:Z47" si="12">1-X3</f>
+        <v>0.91584852734922861</v>
+      </c>
+      <c r="AA3" s="4">
+        <f t="shared" ref="AA3:AA47" si="13">(Y3-$Y$50) / ($Y$49-$Y$50)</f>
         <v>0.42279793873147947</v>
       </c>
-      <c r="Z3" s="4">
+      <c r="AB3" s="4">
         <v>16.111111111111111</v>
       </c>
-      <c r="AA3">
-        <f t="shared" ref="AA3:AA47" si="12">(Z3-$Z$50) / ($Z$49-$Z$50)</f>
+      <c r="AC3">
+        <f t="shared" ref="AC3:AC47" si="14">(AB3-$AB$50) / ($AB$49-$AB$50)</f>
         <v>0.31666302686176018</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:29">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -20547,75 +20574,83 @@
       <c r="H4" s="4">
         <v>43941219861.239281</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="4">
         <f t="shared" si="3"/>
+        <v>0.55563361654578314</v>
+      </c>
+      <c r="J4" s="7">
+        <f t="shared" si="4"/>
         <v>0.12921989760762023</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K4" s="4">
         <v>1403075289677.7966</v>
       </c>
-      <c r="K4" s="7">
-        <f t="shared" si="4"/>
+      <c r="L4" s="7">
+        <f t="shared" si="5"/>
         <v>7.0678853516427387E-2</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M4" s="4">
         <v>2.4517365909946265</v>
       </c>
-      <c r="M4" s="7">
-        <f t="shared" si="5"/>
+      <c r="N4" s="7">
+        <f t="shared" si="6"/>
         <v>0.19863107002523231</v>
       </c>
-      <c r="N4" s="4">
+      <c r="O4" s="4">
         <v>57342.222222222219</v>
       </c>
-      <c r="O4" s="7">
-        <f t="shared" si="6"/>
+      <c r="P4" s="7">
+        <f t="shared" si="7"/>
         <v>0.65255078063808669</v>
       </c>
-      <c r="P4" s="4">
+      <c r="Q4" s="4">
         <v>24.518168051340634</v>
       </c>
-      <c r="Q4" s="7">
-        <f t="shared" si="7"/>
+      <c r="R4" s="7">
+        <f t="shared" si="8"/>
         <v>0.27365283941651153</v>
       </c>
-      <c r="R4" s="4">
+      <c r="S4" s="4">
         <v>82.660704607046071</v>
       </c>
-      <c r="S4" s="4">
-        <f t="shared" si="8"/>
+      <c r="T4" s="4">
+        <f t="shared" si="9"/>
         <v>0.929770103311373</v>
       </c>
-      <c r="T4" s="4">
+      <c r="U4" s="4">
         <v>1.3576551577224791</v>
       </c>
-      <c r="U4" s="4">
-        <f t="shared" si="9"/>
+      <c r="V4" s="4">
+        <f t="shared" si="10"/>
         <v>0.36118481194147456</v>
       </c>
-      <c r="V4" s="4">
+      <c r="W4" s="4">
         <v>0.16666666666666666</v>
       </c>
-      <c r="W4" s="4">
-        <f t="shared" si="10"/>
+      <c r="X4" s="4">
+        <f t="shared" si="11"/>
         <v>2.1037868162692847E-2</v>
       </c>
-      <c r="X4" s="4">
+      <c r="Y4" s="4">
         <v>25.117536015876812</v>
       </c>
-      <c r="Y4" s="4">
-        <f t="shared" si="11"/>
+      <c r="Z4" s="4">
+        <f t="shared" si="12"/>
+        <v>0.97896213183730718</v>
+      </c>
+      <c r="AA4" s="4">
+        <f t="shared" si="13"/>
         <v>0.53508771869527072</v>
       </c>
-      <c r="Z4" s="4">
+      <c r="AB4" s="4">
         <v>1.8888888888888888</v>
       </c>
-      <c r="AA4">
-        <f t="shared" si="12"/>
+      <c r="AC4">
+        <f t="shared" si="14"/>
         <v>3.7126010045861538E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:29">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -20643,75 +20678,83 @@
       <c r="H5" s="4">
         <v>7002187286.5746975</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="4">
         <f t="shared" si="3"/>
+        <v>0.81107856342323048</v>
+      </c>
+      <c r="J5" s="7">
+        <f t="shared" si="4"/>
         <v>1.9474722443843847E-2</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
         <v>431450160054.38507</v>
       </c>
-      <c r="K5" s="7">
-        <f t="shared" si="4"/>
+      <c r="L5" s="7">
+        <f t="shared" si="5"/>
         <v>2.1257482667455814E-2</v>
       </c>
-      <c r="L5" s="4">
+      <c r="M5" s="4">
         <v>1.8061141998459052</v>
       </c>
-      <c r="M5" s="7">
-        <f t="shared" si="5"/>
+      <c r="N5" s="7">
+        <f t="shared" si="6"/>
         <v>9.4611098392049522E-2</v>
       </c>
-      <c r="N5" s="4">
+      <c r="O5" s="4">
         <v>49068.888888888891</v>
       </c>
-      <c r="O5" s="7">
-        <f t="shared" si="6"/>
+      <c r="P5" s="7">
+        <f t="shared" si="7"/>
         <v>0.55534959009973373</v>
       </c>
-      <c r="P5" s="4">
+      <c r="Q5" s="4">
         <v>25.457618492192466</v>
       </c>
-      <c r="Q5" s="7">
-        <f t="shared" si="7"/>
+      <c r="R5" s="7">
+        <f t="shared" si="8"/>
         <v>0.29297719789055032</v>
       </c>
-      <c r="R5" s="4">
+      <c r="S5" s="4">
         <v>81.457994579945819</v>
       </c>
-      <c r="S5" s="4">
-        <f t="shared" si="8"/>
+      <c r="T5" s="4">
+        <f t="shared" si="9"/>
         <v>0.86858674154620508</v>
       </c>
-      <c r="T5" s="4">
+      <c r="U5" s="4">
         <v>0.67228141903524763</v>
       </c>
-      <c r="U5" s="4">
-        <f t="shared" si="9"/>
+      <c r="V5" s="4">
+        <f t="shared" si="10"/>
         <v>0.25634679231746343</v>
       </c>
-      <c r="V5" s="4">
+      <c r="W5" s="4">
         <v>0.45555555555555549</v>
       </c>
-      <c r="W5" s="4">
-        <f t="shared" si="10"/>
+      <c r="X5" s="4">
+        <f t="shared" si="11"/>
         <v>5.7503506311360447E-2</v>
       </c>
-      <c r="X5" s="4">
+      <c r="Y5" s="4">
         <v>44.199627484620841</v>
       </c>
-      <c r="Y5" s="4">
-        <f t="shared" si="11"/>
+      <c r="Z5" s="4">
+        <f t="shared" si="12"/>
+        <v>0.94249649368863953</v>
+      </c>
+      <c r="AA5" s="4">
+        <f t="shared" si="13"/>
         <v>0.94160023590597985</v>
       </c>
-      <c r="Z5" s="4">
+      <c r="AB5" s="4">
         <v>17</v>
       </c>
-      <c r="AA5">
-        <f t="shared" si="12"/>
+      <c r="AC5">
+        <f t="shared" si="14"/>
         <v>0.33413409041275388</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:29">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -20739,75 +20782,83 @@
       <c r="H6" s="4">
         <v>1163687943.2624083</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="4">
         <f t="shared" si="3"/>
+        <v>0.36889687777537006</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" si="4"/>
         <v>2.1286500519840088E-3</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>34970434781.323868</v>
       </c>
-      <c r="K6" s="7">
-        <f t="shared" si="4"/>
+      <c r="L6" s="7">
+        <f t="shared" si="5"/>
         <v>1.0906807400366399E-3</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="4">
         <v>3.3256416876179125</v>
       </c>
-      <c r="M6" s="7">
-        <f t="shared" si="5"/>
+      <c r="N6" s="7">
+        <f t="shared" si="6"/>
         <v>0.33943099364483936</v>
       </c>
-      <c r="N6" s="4">
+      <c r="O6" s="4">
         <v>20694.444444444445</v>
       </c>
-      <c r="O6" s="7">
-        <f t="shared" si="6"/>
+      <c r="P6" s="7">
+        <f t="shared" si="7"/>
         <v>0.22198579708631402</v>
       </c>
-      <c r="P6" s="4">
+      <c r="Q6" s="4">
         <v>42.788784174719495</v>
       </c>
-      <c r="Q6" s="7">
-        <f t="shared" si="7"/>
+      <c r="R6" s="7">
+        <f t="shared" si="8"/>
         <v>0.64947674683794676</v>
       </c>
-      <c r="R6" s="4">
+      <c r="S6" s="4">
         <v>79.448333333333323</v>
       </c>
-      <c r="S6" s="4">
-        <f t="shared" si="8"/>
+      <c r="T6" s="4">
+        <f t="shared" si="9"/>
         <v>0.76635276302572708</v>
       </c>
-      <c r="T6" s="4">
+      <c r="U6" s="4">
         <v>2.8384552662206173</v>
       </c>
-      <c r="U6" s="4">
-        <f t="shared" si="9"/>
+      <c r="V6" s="4">
+        <f t="shared" si="10"/>
         <v>0.58769502391913375</v>
       </c>
-      <c r="V6" s="4">
+      <c r="W6" s="4">
         <v>0</v>
       </c>
-      <c r="W6" s="4">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="X6" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="4">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
+      <c r="Y6" s="4">
+        <v>0</v>
+      </c>
       <c r="Z6" s="4">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AA6" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="4">
         <v>6.8111111111111109</v>
       </c>
-      <c r="AA6">
-        <f t="shared" si="12"/>
+      <c r="AC6">
+        <f t="shared" si="14"/>
         <v>0.13387202445948895</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:29">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -20835,75 +20886,83 @@
       <c r="H7" s="4">
         <v>40787581918.397148</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="4">
         <f t="shared" si="3"/>
+        <v>0.78358595031650924</v>
+      </c>
+      <c r="J7" s="7">
+        <f t="shared" si="4"/>
         <v>0.11985049824014142</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>521865577785.44165</v>
       </c>
-      <c r="K7" s="7">
-        <f t="shared" si="4"/>
+      <c r="L7" s="7">
+        <f t="shared" si="5"/>
         <v>2.5856431123928051E-2</v>
       </c>
-      <c r="L7" s="4">
+      <c r="M7" s="4">
         <v>2.1416463037175388</v>
       </c>
-      <c r="M7" s="7">
-        <f t="shared" si="5"/>
+      <c r="N7" s="7">
+        <f t="shared" si="6"/>
         <v>0.14867062359632588</v>
       </c>
-      <c r="N7" s="4">
+      <c r="O7" s="4">
         <v>46432.222222222219</v>
       </c>
-      <c r="O7" s="7">
-        <f t="shared" si="6"/>
+      <c r="P7" s="7">
+        <f t="shared" si="7"/>
         <v>0.52437209545193453</v>
       </c>
-      <c r="P7" s="4">
+      <c r="Q7" s="4">
         <v>19.448996541115378</v>
       </c>
-      <c r="Q7" s="7">
-        <f t="shared" si="7"/>
+      <c r="R7" s="7">
+        <f t="shared" si="8"/>
         <v>0.16938072119689057</v>
       </c>
-      <c r="R7" s="4">
+      <c r="S7" s="4">
         <v>81.330623306233051</v>
       </c>
-      <c r="S7" s="4">
-        <f t="shared" si="8"/>
+      <c r="T7" s="4">
+        <f t="shared" si="9"/>
         <v>0.86210720571257815</v>
       </c>
-      <c r="T7" s="4">
+      <c r="U7" s="4">
         <v>0.47586565943466003</v>
       </c>
-      <c r="U7" s="4">
-        <f t="shared" si="9"/>
+      <c r="V7" s="4">
+        <f t="shared" si="10"/>
         <v>0.22630210560549047</v>
       </c>
-      <c r="V7" s="4">
+      <c r="W7" s="4">
         <v>8.8888888888888878E-2</v>
       </c>
-      <c r="W7" s="4">
-        <f t="shared" si="10"/>
+      <c r="X7" s="4">
+        <f t="shared" si="11"/>
         <v>1.1220196353436185E-2</v>
       </c>
-      <c r="X7" s="4">
+      <c r="Y7" s="4">
         <v>39.486303217065775</v>
       </c>
-      <c r="Y7" s="4">
-        <f t="shared" si="11"/>
+      <c r="Z7" s="4">
+        <f t="shared" si="12"/>
+        <v>0.98877980364656382</v>
+      </c>
+      <c r="AA7" s="4">
+        <f t="shared" si="13"/>
         <v>0.84119062852240079</v>
       </c>
-      <c r="Z7" s="4">
+      <c r="AB7" s="4">
         <v>3.5555555555555554</v>
       </c>
-      <c r="AA7">
-        <f t="shared" si="12"/>
+      <c r="AC7">
+        <f t="shared" si="14"/>
         <v>6.9884254203974663E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:29">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -20931,75 +20990,83 @@
       <c r="H8" s="4">
         <v>66933975439.334442</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="4">
         <f t="shared" si="3"/>
+        <v>0.96570199497485942</v>
+      </c>
+      <c r="J8" s="7">
+        <f t="shared" si="4"/>
         <v>0.19753094455546691</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <v>1937553981338.4468</v>
       </c>
-      <c r="K8" s="7">
-        <f t="shared" si="4"/>
+      <c r="L8" s="7">
+        <f t="shared" si="5"/>
         <v>9.7864924384800336E-2</v>
       </c>
-      <c r="L8" s="4">
+      <c r="M8" s="4">
         <v>2.0759189449410163</v>
       </c>
-      <c r="M8" s="7">
-        <f t="shared" si="5"/>
+      <c r="N8" s="7">
+        <f t="shared" si="6"/>
         <v>0.13808090724015479</v>
       </c>
-      <c r="N8" s="4">
+      <c r="O8" s="4">
         <v>9607.7777777777774</v>
       </c>
-      <c r="O8" s="7">
-        <f t="shared" si="6"/>
+      <c r="P8" s="7">
+        <f t="shared" si="7"/>
         <v>9.173150227142185E-2</v>
       </c>
-      <c r="P8" s="4">
+      <c r="Q8" s="4">
         <v>19.073781899036348</v>
       </c>
-      <c r="Q8" s="7">
-        <f t="shared" si="7"/>
+      <c r="R8" s="7">
+        <f t="shared" si="8"/>
         <v>0.16166261076450972</v>
       </c>
-      <c r="R8" s="4">
+      <c r="S8" s="4">
         <v>74.336777777777769</v>
       </c>
-      <c r="S8" s="4">
-        <f t="shared" si="8"/>
+      <c r="T8" s="4">
+        <f t="shared" si="9"/>
         <v>0.50632154544925567</v>
       </c>
-      <c r="T8" s="4">
+      <c r="U8" s="4">
         <v>0.76992628333741286</v>
       </c>
-      <c r="U8" s="4">
-        <f t="shared" si="9"/>
+      <c r="V8" s="4">
+        <f t="shared" si="10"/>
         <v>0.271283014150973</v>
       </c>
-      <c r="V8" s="4">
+      <c r="W8" s="4">
         <v>4.3666666666666663</v>
       </c>
-      <c r="W8" s="4">
-        <f t="shared" si="10"/>
+      <c r="X8" s="4">
+        <f t="shared" si="11"/>
         <v>0.55119214586255261</v>
       </c>
-      <c r="X8" s="4">
+      <c r="Y8" s="4">
         <v>28.340614774340381</v>
       </c>
-      <c r="Y8" s="4">
-        <f t="shared" si="11"/>
+      <c r="Z8" s="4">
+        <f t="shared" si="12"/>
+        <v>0.44880785413744739</v>
+      </c>
+      <c r="AA8" s="4">
+        <f t="shared" si="13"/>
         <v>0.60375010098274173</v>
       </c>
-      <c r="Z8" s="4">
+      <c r="AB8" s="4">
         <v>50.87777777777778</v>
       </c>
-      <c r="AA8">
-        <f t="shared" si="12"/>
+      <c r="AC8">
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:29">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -21027,75 +21094,83 @@
       <c r="H9" s="4">
         <v>2061645555.5555556</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="4">
         <f t="shared" si="3"/>
+        <v>0.85678793041687462</v>
+      </c>
+      <c r="J9" s="7">
+        <f t="shared" si="4"/>
         <v>4.7964653298088007E-3</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
         <v>62933721281.104965</v>
       </c>
-      <c r="K9" s="7">
-        <f t="shared" si="4"/>
+      <c r="L9" s="7">
+        <f t="shared" si="5"/>
         <v>2.5130234832686513E-3</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
         <v>3.5077760985917115</v>
       </c>
-      <c r="M9" s="7">
-        <f t="shared" si="5"/>
+      <c r="N9" s="7">
+        <f t="shared" si="6"/>
         <v>0.36877572598786135</v>
       </c>
-      <c r="N9" s="4">
+      <c r="O9" s="4">
         <v>8497.7777777777774</v>
       </c>
-      <c r="O9" s="7">
-        <f t="shared" si="6"/>
+      <c r="P9" s="7">
+        <f t="shared" si="7"/>
         <v>7.8690407811602511E-2</v>
       </c>
-      <c r="P9" s="4">
+      <c r="Q9" s="4">
         <v>22.905751859615346</v>
       </c>
-      <c r="Q9" s="7">
-        <f t="shared" si="7"/>
+      <c r="R9" s="7">
+        <f t="shared" si="8"/>
         <v>0.24048567365309884</v>
       </c>
-      <c r="R9" s="4">
+      <c r="S9" s="4">
         <v>74.313008130081343</v>
       </c>
-      <c r="S9" s="4">
-        <f t="shared" si="8"/>
+      <c r="T9" s="4">
+        <f t="shared" si="9"/>
         <v>0.50511235377273211</v>
       </c>
-      <c r="T9" s="4">
+      <c r="U9" s="4">
         <v>-0.81484647152894696</v>
       </c>
-      <c r="U9" s="4">
-        <f t="shared" si="9"/>
+      <c r="V9" s="4">
+        <f t="shared" si="10"/>
         <v>2.8868652765443995E-2</v>
       </c>
-      <c r="V9" s="4">
+      <c r="W9" s="4">
         <v>1.3666666666666667</v>
       </c>
-      <c r="W9" s="4">
-        <f t="shared" si="10"/>
+      <c r="X9" s="4">
+        <f t="shared" si="11"/>
         <v>0.17251051893408137</v>
       </c>
-      <c r="X9" s="4">
+      <c r="Y9" s="4">
         <v>33.475710205001228</v>
       </c>
-      <c r="Y9" s="4">
-        <f t="shared" si="11"/>
+      <c r="Z9" s="4">
+        <f t="shared" si="12"/>
+        <v>0.82748948106591858</v>
+      </c>
+      <c r="AA9" s="4">
+        <f t="shared" si="13"/>
         <v>0.71314484804463429</v>
       </c>
-      <c r="Z9" s="4">
+      <c r="AB9" s="4">
         <v>18.555555555555557</v>
       </c>
-      <c r="AA9">
-        <f t="shared" si="12"/>
+      <c r="AC9">
+        <f t="shared" si="14"/>
         <v>0.36470845162699284</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:29">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -21123,75 +21198,83 @@
       <c r="H10" s="4">
         <v>48600665151.155045</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="4">
         <f t="shared" si="3"/>
+        <v>0.56102622856047635</v>
+      </c>
+      <c r="J10" s="7">
+        <f t="shared" si="4"/>
         <v>0.14306302245054206</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <v>1720802275577.1887</v>
       </c>
-      <c r="K10" s="7">
-        <f t="shared" si="4"/>
+      <c r="L10" s="7">
+        <f t="shared" si="5"/>
         <v>8.6839925024474823E-2</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M10" s="4">
         <v>2.3871412469162911</v>
       </c>
-      <c r="M10" s="7">
-        <f t="shared" si="5"/>
+      <c r="N10" s="7">
+        <f t="shared" si="6"/>
         <v>0.18822373912905782</v>
       </c>
-      <c r="N10" s="4">
+      <c r="O10" s="4">
         <v>46983.333333333336</v>
       </c>
-      <c r="O10" s="7">
-        <f t="shared" si="6"/>
+      <c r="P10" s="7">
+        <f t="shared" si="7"/>
         <v>0.53084695316171482</v>
       </c>
-      <c r="P10" s="4">
+      <c r="Q10" s="4">
         <v>16.679141063446078</v>
       </c>
-      <c r="Q10" s="7">
-        <f t="shared" si="7"/>
+      <c r="R10" s="7">
+        <f t="shared" si="8"/>
         <v>0.11240519822707024</v>
       </c>
-      <c r="R10" s="4">
+      <c r="S10" s="4">
         <v>81.938051490514937</v>
       </c>
-      <c r="S10" s="4">
-        <f t="shared" si="8"/>
+      <c r="T10" s="4">
+        <f t="shared" si="9"/>
         <v>0.89300783637821057</v>
       </c>
-      <c r="T10" s="4">
+      <c r="U10" s="4">
         <v>1.0765816063211631</v>
       </c>
-      <c r="U10" s="4">
-        <f t="shared" si="9"/>
+      <c r="V10" s="4">
+        <f t="shared" si="10"/>
         <v>0.31819046763811198</v>
       </c>
-      <c r="V10" s="4">
+      <c r="W10" s="4">
         <v>0.16666666666666663</v>
       </c>
-      <c r="W10" s="4">
-        <f t="shared" si="10"/>
+      <c r="X10" s="4">
+        <f t="shared" si="11"/>
         <v>2.1037868162692843E-2</v>
       </c>
-      <c r="X10" s="4">
+      <c r="Y10" s="4">
         <v>18.099811178559655</v>
       </c>
-      <c r="Y10" s="4">
-        <f t="shared" si="11"/>
+      <c r="Z10" s="4">
+        <f t="shared" si="12"/>
+        <v>0.97896213183730718</v>
+      </c>
+      <c r="AA10" s="4">
+        <f t="shared" si="13"/>
         <v>0.38558665412995757</v>
       </c>
-      <c r="Z10" s="4">
+      <c r="AB10" s="4">
         <v>2.0555555555555554</v>
       </c>
-      <c r="AA10">
-        <f t="shared" si="12"/>
+      <c r="AC10">
+        <f t="shared" si="14"/>
         <v>4.040183446167285E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:29">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -21219,75 +21302,83 @@
       <c r="H11" s="4">
         <v>239106422450.49258</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="4">
         <f t="shared" si="3"/>
+        <v>0.81249645649898206</v>
+      </c>
+      <c r="J11" s="7">
+        <f t="shared" si="4"/>
         <v>0.70905206567370538</v>
       </c>
-      <c r="J11" s="4">
+      <c r="K11" s="4">
         <v>12805313303554.959</v>
       </c>
-      <c r="K11" s="7">
-        <f t="shared" si="4"/>
+      <c r="L11" s="7">
+        <f t="shared" si="5"/>
         <v>0.65064968404699897</v>
       </c>
-      <c r="L11" s="4">
+      <c r="M11" s="4">
         <v>6.5643305172095836</v>
       </c>
-      <c r="M11" s="7">
-        <f t="shared" si="5"/>
+      <c r="N11" s="7">
+        <f t="shared" si="6"/>
         <v>0.86123495336102007</v>
       </c>
-      <c r="N11" s="4">
+      <c r="O11" s="4">
         <v>9025.5555555555547</v>
       </c>
-      <c r="O11" s="7">
-        <f t="shared" si="6"/>
+      <c r="P11" s="7">
+        <f t="shared" si="7"/>
         <v>8.4891128400605698E-2</v>
       </c>
-      <c r="P11" s="4">
+      <c r="Q11" s="4">
         <v>40.342143166417074</v>
       </c>
-      <c r="Q11" s="7">
-        <f t="shared" si="7"/>
+      <c r="R11" s="7">
+        <f t="shared" si="8"/>
         <v>0.59914969833621901</v>
       </c>
-      <c r="R11" s="4">
+      <c r="S11" s="4">
         <v>77.401333333333326</v>
       </c>
-      <c r="S11" s="4">
-        <f t="shared" si="8"/>
+      <c r="T11" s="4">
+        <f t="shared" si="9"/>
         <v>0.66221931546874668</v>
       </c>
-      <c r="T11" s="4">
+      <c r="U11" s="4">
         <v>0.46731749414957197</v>
       </c>
-      <c r="U11" s="4">
-        <f t="shared" si="9"/>
+      <c r="V11" s="4">
+        <f t="shared" si="10"/>
         <v>0.22499453767675151</v>
       </c>
-      <c r="V11" s="4">
+      <c r="W11" s="4">
         <v>0.91111111111111098</v>
       </c>
-      <c r="W11" s="4">
-        <f t="shared" si="10"/>
+      <c r="X11" s="4">
+        <f t="shared" si="11"/>
         <v>0.11500701262272089</v>
       </c>
-      <c r="X11" s="4">
+      <c r="Y11" s="4">
         <v>13.450343210013344</v>
       </c>
-      <c r="Y11" s="4">
-        <f t="shared" si="11"/>
+      <c r="Z11" s="4">
+        <f t="shared" si="12"/>
+        <v>0.88499298737727905</v>
+      </c>
+      <c r="AA11" s="4">
+        <f t="shared" si="13"/>
         <v>0.2865373999808406</v>
       </c>
-      <c r="Z11" s="4">
+      <c r="AB11" s="4">
         <v>18.677777777777777</v>
       </c>
-      <c r="AA11">
-        <f t="shared" si="12"/>
+      <c r="AC11">
+        <f t="shared" si="14"/>
         <v>0.36711072286525437</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:29">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -21315,75 +21406,83 @@
       <c r="H12" s="4">
         <v>1802356773.99523</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="4">
         <f t="shared" si="3"/>
+        <v>0.91225181398019728</v>
+      </c>
+      <c r="J12" s="7">
+        <f t="shared" si="4"/>
         <v>4.0261232074799928E-3</v>
       </c>
-      <c r="J12" s="4">
+      <c r="K12" s="4">
         <v>58610231276.961563</v>
       </c>
-      <c r="K12" s="7">
-        <f t="shared" si="4"/>
+      <c r="L12" s="7">
+        <f t="shared" si="5"/>
         <v>2.2931106832164241E-3</v>
       </c>
-      <c r="L12" s="4">
+      <c r="M12" s="4">
         <v>4.7980010388896934</v>
       </c>
-      <c r="M12" s="7">
-        <f t="shared" si="5"/>
+      <c r="N12" s="7">
+        <f t="shared" si="6"/>
         <v>0.57665135658894673</v>
       </c>
-      <c r="N12" s="4">
+      <c r="O12" s="4">
         <v>14317.777777777777</v>
       </c>
-      <c r="O12" s="7">
-        <f t="shared" si="6"/>
+      <c r="P12" s="7">
+        <f t="shared" si="7"/>
         <v>0.1470680382225471</v>
       </c>
-      <c r="P12" s="4">
+      <c r="Q12" s="4">
         <v>20.346206832884366</v>
       </c>
-      <c r="Q12" s="7">
-        <f t="shared" si="7"/>
+      <c r="R12" s="7">
+        <f t="shared" si="8"/>
         <v>0.1878362059684128</v>
       </c>
-      <c r="R12" s="4">
+      <c r="S12" s="4">
         <v>77.597018970189737</v>
       </c>
-      <c r="S12" s="4">
-        <f t="shared" si="8"/>
+      <c r="T12" s="4">
+        <f t="shared" si="9"/>
         <v>0.67217408830863012</v>
       </c>
-      <c r="T12" s="4">
+      <c r="U12" s="4">
         <v>-1.0035739632125487</v>
       </c>
-      <c r="U12" s="4">
-        <f t="shared" si="9"/>
+      <c r="V12" s="4">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="V12" s="4">
+      <c r="W12" s="4">
         <v>0.48888888888888882</v>
       </c>
-      <c r="W12" s="4">
-        <f t="shared" si="10"/>
+      <c r="X12" s="4">
+        <f t="shared" si="11"/>
         <v>6.1711079943899017E-2</v>
       </c>
-      <c r="X12" s="4">
+      <c r="Y12" s="4">
         <v>38.077891787111533</v>
       </c>
-      <c r="Y12" s="4">
-        <f t="shared" si="11"/>
+      <c r="Z12" s="4">
+        <f t="shared" si="12"/>
+        <v>0.93828892005610098</v>
+      </c>
+      <c r="AA12" s="4">
+        <f t="shared" si="13"/>
         <v>0.81118674364443366</v>
       </c>
-      <c r="Z12" s="4">
+      <c r="AB12" s="4">
         <v>17.166666666666668</v>
       </c>
-      <c r="AA12">
-        <f t="shared" si="12"/>
+      <c r="AC12">
+        <f t="shared" si="14"/>
         <v>0.33740991482856519</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:29">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -21411,75 +21510,83 @@
       <c r="H13" s="4">
         <v>1911210023.2428601</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="4">
         <f t="shared" si="3"/>
+        <v>0.96103484476723988</v>
+      </c>
+      <c r="J13" s="7">
+        <f t="shared" si="4"/>
         <v>4.3495241758643374E-3</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <v>82665333333.333328</v>
       </c>
-      <c r="K13" s="7">
-        <f t="shared" si="4"/>
+      <c r="L13" s="7">
+        <f t="shared" si="5"/>
         <v>3.5166649978301098E-3</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
         <v>2.0083871825193209</v>
       </c>
-      <c r="M13" s="7">
-        <f t="shared" si="5"/>
+      <c r="N13" s="7">
+        <f t="shared" si="6"/>
         <v>0.12720047293714834</v>
       </c>
-      <c r="N13" s="4">
+      <c r="O13" s="4">
         <v>5960</v>
       </c>
-      <c r="O13" s="7">
-        <f t="shared" si="6"/>
+      <c r="P13" s="7">
+        <f t="shared" si="7"/>
         <v>4.8874732389953525E-2</v>
       </c>
-      <c r="P13" s="4">
+      <c r="Q13" s="4">
         <v>23.416405977719926</v>
       </c>
-      <c r="Q13" s="7">
-        <f t="shared" si="7"/>
+      <c r="R13" s="7">
+        <f t="shared" si="8"/>
         <v>0.25098975434260207</v>
       </c>
-      <c r="R13" s="4">
+      <c r="S13" s="4">
         <v>77.224888888888884</v>
       </c>
-      <c r="S13" s="4">
-        <f t="shared" si="8"/>
+      <c r="T13" s="4">
+        <f t="shared" si="9"/>
         <v>0.65324336612713652</v>
       </c>
-      <c r="T13" s="4">
+      <c r="U13" s="4">
         <v>7.2229893809432011E-2</v>
       </c>
-      <c r="U13" s="4">
-        <f t="shared" si="9"/>
+      <c r="V13" s="4">
+        <f t="shared" si="10"/>
         <v>0.1645600633751835</v>
       </c>
-      <c r="V13" s="4">
+      <c r="W13" s="4">
         <v>0</v>
       </c>
-      <c r="W13" s="4">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="X13" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="4">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
+      <c r="Y13" s="4">
+        <v>0</v>
+      </c>
       <c r="Z13" s="4">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AA13" s="4">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AA13">
-        <f t="shared" si="12"/>
+      <c r="AB13" s="4">
         <v>0</v>
       </c>
+      <c r="AC13">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:29">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -21507,75 +21614,83 @@
       <c r="H14" s="4">
         <v>5696812003.0417995</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="4">
         <f t="shared" si="3"/>
+        <v>0.85171059668367666</v>
+      </c>
+      <c r="J14" s="7">
+        <f t="shared" si="4"/>
         <v>1.5596476881884026E-2</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <v>344594862652.73285</v>
       </c>
-      <c r="K14" s="7">
-        <f t="shared" si="4"/>
+      <c r="L14" s="7">
+        <f t="shared" si="5"/>
         <v>1.6839618480731365E-2</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
         <v>2.4127188845886769</v>
       </c>
-      <c r="M14" s="7">
-        <f t="shared" si="5"/>
+      <c r="N14" s="7">
+        <f t="shared" si="6"/>
         <v>0.19234470082679506</v>
       </c>
-      <c r="N14" s="4">
+      <c r="O14" s="4">
         <v>61946.666666666664</v>
       </c>
-      <c r="O14" s="7">
-        <f t="shared" si="6"/>
+      <c r="P14" s="7">
+        <f t="shared" si="7"/>
         <v>0.70664717247141129</v>
       </c>
-      <c r="P14" s="4">
+      <c r="Q14" s="4">
         <v>20.233187243168533</v>
       </c>
-      <c r="Q14" s="7">
-        <f t="shared" si="7"/>
+      <c r="R14" s="7">
+        <f t="shared" si="8"/>
         <v>0.18551140950094061</v>
       </c>
-      <c r="R14" s="4">
+      <c r="S14" s="4">
         <v>81.007859078590783</v>
       </c>
-      <c r="S14" s="4">
-        <f t="shared" si="8"/>
+      <c r="T14" s="4">
+        <f t="shared" si="9"/>
         <v>0.84568778618524287</v>
       </c>
-      <c r="T14" s="4">
+      <c r="U14" s="4">
         <v>0.51479417221999113</v>
       </c>
-      <c r="U14" s="4">
-        <f t="shared" si="9"/>
+      <c r="V14" s="4">
+        <f t="shared" si="10"/>
         <v>0.23225679566282947</v>
       </c>
-      <c r="V14" s="4">
+      <c r="W14" s="4">
         <v>0.2</v>
       </c>
-      <c r="W14" s="4">
-        <f t="shared" si="10"/>
+      <c r="X14" s="4">
+        <f t="shared" si="11"/>
         <v>2.5245441795231419E-2</v>
       </c>
-      <c r="X14" s="4">
+      <c r="Y14" s="4">
         <v>40.059488530110166</v>
       </c>
-      <c r="Y14" s="4">
-        <f t="shared" si="11"/>
+      <c r="Z14" s="4">
+        <f t="shared" si="12"/>
+        <v>0.97475455820476853</v>
+      </c>
+      <c r="AA14" s="4">
+        <f t="shared" si="13"/>
         <v>0.85340139718030927</v>
       </c>
-      <c r="Z14" s="4">
+      <c r="AB14" s="4">
         <v>3.2777777777777777</v>
       </c>
-      <c r="AA14">
-        <f t="shared" si="12"/>
+      <c r="AC14">
+        <f t="shared" si="14"/>
         <v>6.4424546844289138E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:29">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -21603,75 +21718,83 @@
       <c r="H15" s="4">
         <v>6596733333.333333</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="4">
         <f t="shared" si="3"/>
+        <v>0.96316897234095444</v>
+      </c>
+      <c r="J15" s="7">
+        <f t="shared" si="4"/>
         <v>1.827012632916817E-2</v>
       </c>
-      <c r="J15" s="4">
+      <c r="K15" s="4">
         <v>312640087788.68805</v>
       </c>
-      <c r="K15" s="7">
-        <f t="shared" si="4"/>
+      <c r="L15" s="7">
+        <f t="shared" si="5"/>
         <v>1.5214250084214646E-2</v>
       </c>
-      <c r="L15" s="4">
+      <c r="M15" s="4">
         <v>3.9743864397971893</v>
       </c>
-      <c r="M15" s="7">
-        <f t="shared" si="5"/>
+      <c r="N15" s="7">
+        <f t="shared" si="6"/>
         <v>0.44395402699068837</v>
       </c>
-      <c r="N15" s="4">
+      <c r="O15" s="4">
         <v>2958.8888888888887</v>
       </c>
-      <c r="O15" s="7">
-        <f t="shared" si="6"/>
+      <c r="P15" s="7">
+        <f t="shared" si="7"/>
         <v>1.3615476998590148E-2</v>
       </c>
-      <c r="P15" s="4">
+      <c r="Q15" s="4">
         <v>35.111272407414354</v>
       </c>
-      <c r="Q15" s="7">
-        <f t="shared" si="7"/>
+      <c r="R15" s="7">
+        <f t="shared" si="8"/>
         <v>0.49155145016606527</v>
       </c>
-      <c r="R15" s="4">
+      <c r="S15" s="4">
         <v>70.781333333333336</v>
       </c>
-      <c r="S15" s="4">
-        <f t="shared" si="8"/>
+      <c r="T15" s="4">
+        <f t="shared" si="9"/>
         <v>0.32545164432697321</v>
       </c>
-      <c r="T15" s="4">
+      <c r="U15" s="4">
         <v>2.0028086495974886</v>
       </c>
-      <c r="U15" s="4">
-        <f t="shared" si="9"/>
+      <c r="V15" s="4">
+        <f t="shared" si="10"/>
         <v>0.45987055174125602</v>
       </c>
-      <c r="V15" s="4">
+      <c r="W15" s="4">
         <v>0.54444444444444451</v>
       </c>
-      <c r="W15" s="4">
-        <f t="shared" si="10"/>
+      <c r="X15" s="4">
+        <f t="shared" si="11"/>
         <v>6.8723702664796646E-2</v>
       </c>
-      <c r="X15" s="4">
+      <c r="Y15" s="4">
         <v>6.9201829638845664</v>
       </c>
-      <c r="Y15" s="4">
-        <f t="shared" si="11"/>
+      <c r="Z15" s="4">
+        <f t="shared" si="12"/>
+        <v>0.93127629733520334</v>
+      </c>
+      <c r="AA15" s="4">
+        <f t="shared" si="13"/>
         <v>0.14742309567141701</v>
       </c>
-      <c r="Z15" s="4">
+      <c r="AB15" s="4">
         <v>10.944444444444445</v>
       </c>
-      <c r="AA15">
-        <f t="shared" si="12"/>
+      <c r="AC15">
+        <f t="shared" si="14"/>
         <v>0.21511246997160952</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:29">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -21699,75 +21822,83 @@
       <c r="H16" s="4">
         <v>16127979577.911413</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="4">
         <f t="shared" si="3"/>
+        <v>0.78712321450146239</v>
+      </c>
+      <c r="J16" s="7">
+        <f t="shared" si="4"/>
         <v>4.6587280724752808E-2</v>
       </c>
-      <c r="J16" s="4">
+      <c r="K16" s="4">
         <v>265621726321.01166</v>
       </c>
-      <c r="K16" s="7">
-        <f t="shared" si="4"/>
+      <c r="L16" s="7">
+        <f t="shared" si="5"/>
         <v>1.282267764752225E-2</v>
       </c>
-      <c r="L16" s="4">
+      <c r="M16" s="4">
         <v>1.9808704833309427</v>
       </c>
-      <c r="M16" s="7">
-        <f t="shared" si="5"/>
+      <c r="N16" s="7">
+        <f t="shared" si="6"/>
         <v>0.12276709778124459</v>
       </c>
-      <c r="N16" s="4">
+      <c r="O16" s="4">
         <v>48693.333333333336</v>
       </c>
-      <c r="O16" s="7">
-        <f t="shared" si="6"/>
+      <c r="P16" s="7">
+        <f t="shared" si="7"/>
         <v>0.55093728787008511</v>
       </c>
-      <c r="P16" s="4">
+      <c r="Q16" s="4">
         <v>23.792182710285925</v>
       </c>
-      <c r="Q16" s="7">
-        <f t="shared" si="7"/>
+      <c r="R16" s="7">
+        <f t="shared" si="8"/>
         <v>0.25871942689427385</v>
       </c>
-      <c r="R16" s="4">
+      <c r="S16" s="4">
         <v>81.586720867208697</v>
       </c>
-      <c r="S16" s="4">
-        <f t="shared" si="8"/>
+      <c r="T16" s="4">
+        <f t="shared" si="9"/>
         <v>0.87513520861210337</v>
       </c>
-      <c r="T16" s="4">
+      <c r="U16" s="4">
         <v>0.257724702491052</v>
       </c>
-      <c r="U16" s="4">
-        <f t="shared" si="9"/>
+      <c r="V16" s="4">
+        <f t="shared" si="10"/>
         <v>0.19293422960741266</v>
       </c>
-      <c r="V16" s="4">
+      <c r="W16" s="4">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="W16" s="4">
-        <f t="shared" si="10"/>
+      <c r="X16" s="4">
+        <f t="shared" si="11"/>
         <v>7.0126227208976155E-3</v>
       </c>
-      <c r="X16" s="4">
+      <c r="Y16" s="4">
         <v>36.888258514570879</v>
       </c>
-      <c r="Y16" s="4">
-        <f t="shared" si="11"/>
+      <c r="Z16" s="4">
+        <f t="shared" si="12"/>
+        <v>0.99298737727910236</v>
+      </c>
+      <c r="AA16" s="4">
+        <f t="shared" si="13"/>
         <v>0.78584356692975121</v>
       </c>
-      <c r="Z16" s="4">
+      <c r="AB16" s="4">
         <v>12.777777777777779</v>
       </c>
-      <c r="AA16">
-        <f t="shared" si="12"/>
+      <c r="AC16">
+        <f t="shared" si="14"/>
         <v>0.25114653854553398</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:29">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -21795,75 +21926,83 @@
       <c r="H17" s="4">
         <v>42559640496.453491</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="4">
         <f t="shared" si="3"/>
+        <v>0.89157564609487427</v>
+      </c>
+      <c r="J17" s="7">
+        <f t="shared" si="4"/>
         <v>0.12511525114497657</v>
       </c>
-      <c r="J17" s="4">
+      <c r="K17" s="4">
         <v>2699095667914.5405</v>
       </c>
-      <c r="K17" s="7">
-        <f t="shared" si="4"/>
+      <c r="L17" s="7">
+        <f t="shared" si="5"/>
         <v>0.13660047471357351</v>
       </c>
-      <c r="L17" s="4">
+      <c r="M17" s="4">
         <v>2.0696166859233025</v>
       </c>
-      <c r="M17" s="7">
-        <f t="shared" si="5"/>
+      <c r="N17" s="7">
+        <f t="shared" si="6"/>
         <v>0.13706551370171019</v>
       </c>
-      <c r="N17" s="4">
+      <c r="O17" s="4">
         <v>41435.555555555555</v>
       </c>
-      <c r="O17" s="7">
-        <f t="shared" si="6"/>
+      <c r="P17" s="7">
+        <f t="shared" si="7"/>
         <v>0.46566758915983497</v>
       </c>
-      <c r="P17" s="4">
+      <c r="Q17" s="4">
         <v>17.315215031017132</v>
       </c>
-      <c r="Q17" s="7">
-        <f t="shared" si="7"/>
+      <c r="R17" s="7">
+        <f t="shared" si="8"/>
         <v>0.12548914691754276</v>
       </c>
-      <c r="R17" s="4">
+      <c r="S17" s="4">
         <v>82.490243902439047</v>
       </c>
-      <c r="S17" s="4">
-        <f t="shared" si="8"/>
+      <c r="T17" s="4">
+        <f t="shared" si="9"/>
         <v>0.9210985542914798</v>
       </c>
-      <c r="T17" s="4">
+      <c r="U17" s="4">
         <v>0.34772223756232812</v>
       </c>
-      <c r="U17" s="4">
-        <f t="shared" si="9"/>
+      <c r="V17" s="4">
+        <f t="shared" si="10"/>
         <v>0.20670067967009995</v>
       </c>
-      <c r="V17" s="4">
+      <c r="W17" s="4">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="W17" s="4">
-        <f t="shared" si="10"/>
+      <c r="X17" s="4">
+        <f t="shared" si="11"/>
         <v>7.0126227208976155E-3</v>
       </c>
-      <c r="X17" s="4">
+      <c r="Y17" s="4">
         <v>43.689780444058059</v>
       </c>
-      <c r="Y17" s="4">
-        <f t="shared" si="11"/>
+      <c r="Z17" s="4">
+        <f t="shared" si="12"/>
+        <v>0.99298737727910236</v>
+      </c>
+      <c r="AA17" s="4">
+        <f t="shared" si="13"/>
         <v>0.93073878478092409</v>
       </c>
-      <c r="Z17" s="4">
+      <c r="AB17" s="4">
         <v>3.2777777777777777</v>
       </c>
-      <c r="AA17">
-        <f t="shared" si="12"/>
+      <c r="AC17">
+        <f t="shared" si="14"/>
         <v>6.4424546844289138E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:29">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -21891,75 +22030,83 @@
       <c r="H18" s="4">
         <v>86478335808.318359</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="4">
         <f t="shared" si="3"/>
+        <v>0.7650593603534479</v>
+      </c>
+      <c r="J18" s="7">
+        <f t="shared" si="4"/>
         <v>0.25559687380855822</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K18" s="4">
         <v>3794828803827.7456</v>
       </c>
-      <c r="K18" s="7">
-        <f t="shared" si="4"/>
+      <c r="L18" s="7">
+        <f t="shared" si="5"/>
         <v>0.19233455569855368</v>
       </c>
-      <c r="L18" s="4">
+      <c r="M18" s="4">
         <v>1.71426512687413</v>
       </c>
-      <c r="M18" s="7">
-        <f t="shared" si="5"/>
+      <c r="N18" s="7">
+        <f t="shared" si="6"/>
         <v>7.9812761010876879E-2</v>
       </c>
-      <c r="N18" s="4">
+      <c r="O18" s="4">
         <v>47233.333333333336</v>
       </c>
-      <c r="O18" s="7">
-        <f t="shared" si="6"/>
+      <c r="P18" s="7">
+        <f t="shared" si="7"/>
         <v>0.53378413659861101</v>
       </c>
-      <c r="P18" s="4">
+      <c r="Q18" s="4">
         <v>27.061372270766775</v>
       </c>
-      <c r="Q18" s="7">
-        <f t="shared" si="7"/>
+      <c r="R18" s="7">
+        <f t="shared" si="8"/>
         <v>0.32596617907955594</v>
       </c>
-      <c r="R18" s="4">
+      <c r="S18" s="4">
         <v>80.925853658536596</v>
       </c>
-      <c r="S18" s="4">
-        <f t="shared" si="8"/>
+      <c r="T18" s="4">
+        <f t="shared" si="9"/>
         <v>0.84151606800810508</v>
       </c>
-      <c r="T18" s="4">
+      <c r="U18" s="4">
         <v>0.3762766787088232</v>
       </c>
-      <c r="U18" s="4">
-        <f t="shared" si="9"/>
+      <c r="V18" s="4">
+        <f t="shared" si="10"/>
         <v>0.21106850249769016</v>
       </c>
-      <c r="V18" s="4">
+      <c r="W18" s="4">
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="W18" s="4">
-        <f t="shared" si="10"/>
+      <c r="X18" s="4">
+        <f t="shared" si="11"/>
         <v>2.8050490883590466E-3</v>
       </c>
-      <c r="X18" s="4">
+      <c r="Y18" s="4">
         <v>28.760808578414007</v>
       </c>
-      <c r="Y18" s="4">
-        <f t="shared" si="11"/>
+      <c r="Z18" s="4">
+        <f t="shared" si="12"/>
+        <v>0.9971949509116409</v>
+      </c>
+      <c r="AA18" s="4">
+        <f t="shared" si="13"/>
         <v>0.61270163762588714</v>
       </c>
-      <c r="Z18" s="4">
+      <c r="AB18" s="4">
         <v>7.9444444444444446</v>
       </c>
-      <c r="AA18">
-        <f t="shared" si="12"/>
+      <c r="AC18">
+        <f t="shared" si="14"/>
         <v>0.15614763048700589</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:29">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -21987,75 +22134,83 @@
       <c r="H19" s="4">
         <v>3501159398.6907797</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="4">
         <f t="shared" si="3"/>
+        <v>0.84645129180676115</v>
+      </c>
+      <c r="J19" s="7">
+        <f t="shared" si="4"/>
         <v>9.07323404448028E-3</v>
       </c>
-      <c r="J19" s="4">
+      <c r="K19" s="4">
         <v>209349804520.51611</v>
       </c>
-      <c r="K19" s="7">
-        <f t="shared" si="4"/>
+      <c r="L19" s="7">
+        <f t="shared" si="5"/>
         <v>9.9604261156330844E-3</v>
       </c>
-      <c r="L19" s="4">
+      <c r="M19" s="4">
         <v>2.7110081979608038</v>
       </c>
-      <c r="M19" s="7">
-        <f t="shared" si="5"/>
+      <c r="N19" s="7">
+        <f t="shared" si="6"/>
         <v>0.24040382383869008</v>
       </c>
-      <c r="N19" s="4">
+      <c r="O19" s="4">
         <v>19773.333333333332</v>
       </c>
-      <c r="O19" s="7">
-        <f t="shared" si="6"/>
+      <c r="P19" s="7">
+        <f t="shared" si="7"/>
         <v>0.21116390788992739</v>
       </c>
-      <c r="P19" s="4">
+      <c r="Q19" s="4">
         <v>14.356133572332858</v>
       </c>
-      <c r="Q19" s="7">
-        <f t="shared" si="7"/>
+      <c r="R19" s="7">
+        <f t="shared" si="8"/>
         <v>6.4621273132048324E-2</v>
       </c>
-      <c r="R19" s="4">
+      <c r="S19" s="4">
         <v>81.253387533875355</v>
       </c>
-      <c r="S19" s="4">
-        <f t="shared" si="8"/>
+      <c r="T19" s="4">
+        <f t="shared" si="9"/>
         <v>0.85817812547304073</v>
       </c>
-      <c r="T19" s="4">
+      <c r="U19" s="4">
         <v>-0.53775653470695095</v>
       </c>
-      <c r="U19" s="4">
-        <f t="shared" si="9"/>
+      <c r="V19" s="4">
+        <f t="shared" si="10"/>
         <v>7.1253644477852041E-2</v>
       </c>
-      <c r="V19" s="4">
+      <c r="W19" s="4">
         <v>0.8222222222222223</v>
       </c>
-      <c r="W19" s="4">
-        <f t="shared" si="10"/>
+      <c r="X19" s="4">
+        <f t="shared" si="11"/>
         <v>0.10378681626928472</v>
       </c>
-      <c r="X19" s="4">
+      <c r="Y19" s="4">
         <v>46.940969000600631</v>
       </c>
-      <c r="Y19" s="4">
-        <f t="shared" si="11"/>
+      <c r="Z19" s="4">
+        <f t="shared" si="12"/>
+        <v>0.89621318373071523</v>
+      </c>
+      <c r="AA19" s="4">
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="Z19" s="4">
+      <c r="AB19" s="4">
         <v>9.1111111111111107</v>
       </c>
-      <c r="AA19">
-        <f t="shared" si="12"/>
+      <c r="AC19">
+        <f t="shared" si="14"/>
         <v>0.17907840139768508</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:29">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -22083,75 +22238,83 @@
       <c r="H20" s="4">
         <v>43664618960.737656</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="4">
         <f t="shared" si="3"/>
+        <v>0.98315508811234775</v>
+      </c>
+      <c r="J20" s="7">
+        <f t="shared" si="4"/>
         <v>0.12839812150358579</v>
       </c>
-      <c r="J20" s="4">
+      <c r="K20" s="4">
         <v>2480463696351.6348</v>
       </c>
-      <c r="K20" s="7">
-        <f t="shared" si="4"/>
+      <c r="L20" s="7">
+        <f t="shared" si="5"/>
         <v>0.12547983629385695</v>
       </c>
-      <c r="L20" s="4">
+      <c r="M20" s="4">
         <v>6.9646594134860269</v>
       </c>
-      <c r="M20" s="7">
-        <f t="shared" si="5"/>
+      <c r="N20" s="7">
+        <f t="shared" si="6"/>
         <v>0.92573426597086816</v>
       </c>
-      <c r="N20" s="4">
+      <c r="O20" s="4">
         <v>1800</v>
       </c>
-      <c r="O20" s="7">
-        <f t="shared" si="6"/>
+      <c r="P20" s="7">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P20" s="4">
+      <c r="Q20" s="4">
         <v>26.439417707557531</v>
       </c>
-      <c r="Q20" s="7">
-        <f t="shared" si="7"/>
+      <c r="R20" s="7">
+        <f t="shared" si="8"/>
         <v>0.31317266447635694</v>
       </c>
-      <c r="R20" s="4">
+      <c r="S20" s="4">
         <v>69.640444444444427</v>
       </c>
-      <c r="S20" s="4">
-        <f t="shared" si="8"/>
+      <c r="T20" s="4">
+        <f t="shared" si="9"/>
         <v>0.26741320110300881</v>
       </c>
-      <c r="T20" s="4">
+      <c r="U20" s="4">
         <v>1.1035169449014328</v>
       </c>
-      <c r="U20" s="4">
-        <f t="shared" si="9"/>
+      <c r="V20" s="4">
+        <f t="shared" si="10"/>
         <v>0.32231062485345341</v>
       </c>
-      <c r="V20" s="4">
+      <c r="W20" s="4">
         <v>7.9222222222222216</v>
       </c>
-      <c r="W20" s="4">
-        <f t="shared" si="10"/>
+      <c r="X20" s="4">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="X20" s="4">
+      <c r="Y20" s="4">
         <v>8.3712372708696101</v>
       </c>
-      <c r="Y20" s="4">
-        <f t="shared" si="11"/>
+      <c r="Z20" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="4">
+        <f t="shared" si="13"/>
         <v>0.1783354167819266</v>
       </c>
-      <c r="Z20" s="4">
+      <c r="AB20" s="4">
         <v>21.1</v>
       </c>
-      <c r="AA20">
-        <f t="shared" si="12"/>
+      <c r="AC20">
+        <f t="shared" si="14"/>
         <v>0.41471937104171219</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:29">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -22179,75 +22342,83 @@
       <c r="H21" s="4">
         <v>19725018093.208042</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="4">
         <f t="shared" si="3"/>
+        <v>0.9741677840790216</v>
+      </c>
+      <c r="J21" s="7">
+        <f t="shared" si="4"/>
         <v>5.7274014903136015E-2</v>
       </c>
-      <c r="J21" s="4">
+      <c r="K21" s="4">
         <v>1001982506645.7704</v>
       </c>
-      <c r="K21" s="7">
-        <f t="shared" si="4"/>
+      <c r="L21" s="7">
+        <f t="shared" si="5"/>
         <v>5.0277410026843279E-2</v>
       </c>
-      <c r="L21" s="4">
+      <c r="M21" s="4">
         <v>4.9284911038704013</v>
       </c>
-      <c r="M21" s="7">
-        <f t="shared" si="5"/>
+      <c r="N21" s="7">
+        <f t="shared" si="6"/>
         <v>0.59767536852501768</v>
       </c>
-      <c r="N21" s="4">
+      <c r="O21" s="4">
         <v>3740</v>
       </c>
-      <c r="O21" s="7">
-        <f t="shared" si="6"/>
+      <c r="P21" s="7">
+        <f t="shared" si="7"/>
         <v>2.2792543470314865E-2</v>
       </c>
-      <c r="P21" s="4">
+      <c r="Q21" s="4">
         <v>40.010154252446881</v>
       </c>
-      <c r="Q21" s="7">
-        <f t="shared" si="7"/>
+      <c r="R21" s="7">
+        <f t="shared" si="8"/>
         <v>0.59232073482309355</v>
       </c>
-      <c r="R21" s="4">
+      <c r="S21" s="4">
         <v>69.495999999999995</v>
       </c>
-      <c r="S21" s="4">
-        <f t="shared" si="8"/>
+      <c r="T21" s="4">
+        <f t="shared" si="9"/>
         <v>0.2600651317427492</v>
       </c>
-      <c r="T21" s="4">
+      <c r="U21" s="4">
         <v>0.99861818145093428</v>
       </c>
-      <c r="U21" s="4">
-        <f t="shared" si="9"/>
+      <c r="V21" s="4">
+        <f t="shared" si="10"/>
         <v>0.30626481218163681</v>
       </c>
-      <c r="V21" s="4">
+      <c r="W21" s="4">
         <v>6.6666666666666661</v>
       </c>
-      <c r="W21" s="4">
-        <f t="shared" si="10"/>
+      <c r="X21" s="4">
+        <f t="shared" si="11"/>
         <v>0.84151472650771386</v>
       </c>
-      <c r="X21" s="4">
+      <c r="Y21" s="4">
         <v>12.771188424965333</v>
       </c>
-      <c r="Y21" s="4">
-        <f t="shared" si="11"/>
+      <c r="Z21" s="4">
+        <f t="shared" si="12"/>
+        <v>0.15848527349228614</v>
+      </c>
+      <c r="AA21" s="4">
+        <f t="shared" si="13"/>
         <v>0.27206912632762054</v>
       </c>
-      <c r="Z21" s="4">
+      <c r="AB21" s="4">
         <v>29.388888888888896</v>
       </c>
-      <c r="AA21">
-        <f t="shared" si="12"/>
+      <c r="AC21">
+        <f t="shared" si="14"/>
         <v>0.57763703865472826</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:29">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -22275,75 +22446,83 @@
       <c r="H22" s="4">
         <v>15731144444.444445</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="4">
         <f t="shared" si="3"/>
+        <v>0.80467975955491844</v>
+      </c>
+      <c r="J22" s="7">
+        <f t="shared" si="4"/>
         <v>4.5408290962488614E-2</v>
       </c>
-      <c r="J22" s="4">
+      <c r="K22" s="4">
         <v>364086843379.6272</v>
       </c>
-      <c r="K22" s="7">
-        <f t="shared" si="4"/>
+      <c r="L22" s="7">
+        <f t="shared" si="5"/>
         <v>1.7831071232121423E-2</v>
       </c>
-      <c r="L22" s="4">
+      <c r="M22" s="4">
         <v>4.5571476567524076</v>
       </c>
-      <c r="M22" s="7">
-        <f t="shared" si="5"/>
+      <c r="N22" s="7">
+        <f t="shared" si="6"/>
         <v>0.53784606990565786</v>
       </c>
-      <c r="N22" s="4">
+      <c r="O22" s="4">
         <v>40226.666666666664</v>
       </c>
-      <c r="O22" s="7">
-        <f t="shared" si="6"/>
+      <c r="P22" s="7">
+        <f t="shared" si="7"/>
         <v>0.45146467547386554</v>
       </c>
-      <c r="P22" s="4">
+      <c r="Q22" s="4">
         <v>18.897562742219947</v>
       </c>
-      <c r="Q22" s="7">
-        <f t="shared" si="7"/>
+      <c r="R22" s="7">
+        <f t="shared" si="8"/>
         <v>0.15803780842451054</v>
       </c>
-      <c r="R22" s="4">
+      <c r="S22" s="4">
         <v>82.441734417344165</v>
       </c>
-      <c r="S22" s="4">
-        <f t="shared" si="8"/>
+      <c r="T22" s="4">
+        <f t="shared" si="9"/>
         <v>0.91863081617611875</v>
       </c>
-      <c r="T22" s="4">
+      <c r="U22" s="4">
         <v>1.8742395413520301</v>
       </c>
-      <c r="U22" s="4">
-        <f t="shared" si="9"/>
+      <c r="V22" s="4">
+        <f t="shared" si="10"/>
         <v>0.44020401079806698</v>
       </c>
-      <c r="V22" s="4">
+      <c r="W22" s="4">
         <v>0.30000000000000004</v>
       </c>
-      <c r="W22" s="4">
-        <f t="shared" si="10"/>
+      <c r="X22" s="4">
+        <f t="shared" si="11"/>
         <v>3.7868162692847131E-2</v>
       </c>
-      <c r="X22" s="4">
+      <c r="Y22" s="4">
         <v>31.585237146901832</v>
       </c>
-      <c r="Y22" s="4">
-        <f t="shared" si="11"/>
+      <c r="Z22" s="4">
+        <f t="shared" si="12"/>
+        <v>0.9621318373071529</v>
+      </c>
+      <c r="AA22" s="4">
+        <f t="shared" si="13"/>
         <v>0.67287143447119047</v>
       </c>
-      <c r="Z22" s="4">
+      <c r="AB22" s="4">
         <v>8.8888888888888893</v>
       </c>
-      <c r="AA22">
-        <f t="shared" si="12"/>
+      <c r="AC22">
+        <f t="shared" si="14"/>
         <v>0.17471063550993668</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:29">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -22371,75 +22550,83 @@
       <c r="H23" s="4">
         <v>22626139848.366737</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="4">
         <f t="shared" si="3"/>
+        <v>0.86815764409853213</v>
+      </c>
+      <c r="J23" s="7">
+        <f t="shared" si="4"/>
         <v>6.5893193398073202E-2</v>
       </c>
-      <c r="J23" s="4">
+      <c r="K23" s="4">
         <v>2009681341736.2322</v>
       </c>
-      <c r="K23" s="7">
-        <f t="shared" si="4"/>
+      <c r="L23" s="7">
+        <f t="shared" si="5"/>
         <v>0.10153365723031452</v>
       </c>
-      <c r="L23" s="4">
+      <c r="M23" s="4">
         <v>1.9809854173238926</v>
       </c>
-      <c r="M23" s="7">
-        <f t="shared" si="5"/>
+      <c r="N23" s="7">
+        <f t="shared" si="6"/>
         <v>0.12278561546410416</v>
       </c>
-      <c r="N23" s="4">
+      <c r="O23" s="4">
         <v>33778.888888888891</v>
       </c>
-      <c r="O23" s="7">
-        <f t="shared" si="6"/>
+      <c r="P23" s="7">
+        <f t="shared" si="7"/>
         <v>0.37571145109915932</v>
       </c>
-      <c r="P23" s="4">
+      <c r="Q23" s="4">
         <v>21.373258718726721</v>
       </c>
-      <c r="Q23" s="7">
-        <f t="shared" si="7"/>
+      <c r="R23" s="7">
+        <f t="shared" si="8"/>
         <v>0.20896251338220156</v>
       </c>
-      <c r="R23" s="4">
+      <c r="S23" s="4">
         <v>82.927642276422759</v>
       </c>
-      <c r="S23" s="4">
-        <f t="shared" si="8"/>
+      <c r="T23" s="4">
+        <f t="shared" si="9"/>
         <v>0.94334955606907689</v>
       </c>
-      <c r="T23" s="4">
+      <c r="U23" s="4">
         <v>1.0383776063859687</v>
       </c>
-      <c r="U23" s="4">
-        <f t="shared" si="9"/>
+      <c r="V23" s="4">
+        <f t="shared" si="10"/>
         <v>0.31234660250462543</v>
       </c>
-      <c r="V23" s="4">
+      <c r="W23" s="4">
         <v>1.2000000000000002</v>
       </c>
-      <c r="W23" s="4">
-        <f t="shared" si="10"/>
+      <c r="X23" s="4">
+        <f t="shared" si="11"/>
         <v>0.15147265077138852</v>
       </c>
-      <c r="X23" s="4">
+      <c r="Y23" s="4">
         <v>40.071989680656159</v>
       </c>
-      <c r="Y23" s="4">
-        <f t="shared" si="11"/>
+      <c r="Z23" s="4">
+        <f t="shared" si="12"/>
+        <v>0.8485273492286115</v>
+      </c>
+      <c r="AA23" s="4">
+        <f t="shared" si="13"/>
         <v>0.85366771359456639</v>
       </c>
-      <c r="Z23" s="4">
+      <c r="AB23" s="4">
         <v>8.7777777777777786</v>
       </c>
-      <c r="AA23">
-        <f t="shared" si="12"/>
+      <c r="AC23">
+        <f t="shared" si="14"/>
         <v>0.17252675256606248</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:29">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -22467,75 +22654,83 @@
       <c r="H24" s="4">
         <v>28275271708.441017</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="4">
         <f t="shared" si="3"/>
+        <v>0.75555275441673619</v>
+      </c>
+      <c r="J24" s="7">
+        <f t="shared" si="4"/>
         <v>8.2676658537664816E-2</v>
       </c>
-      <c r="J24" s="4">
+      <c r="K24" s="4">
         <v>4958989700515.5938</v>
       </c>
-      <c r="K24" s="7">
-        <f t="shared" si="4"/>
+      <c r="L24" s="7">
+        <f t="shared" si="5"/>
         <v>0.2515491906940287</v>
       </c>
-      <c r="L24" s="4">
+      <c r="M24" s="4">
         <v>1.2188900099712348</v>
       </c>
-      <c r="M24" s="7">
-        <f t="shared" si="5"/>
+      <c r="N24" s="7">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N24" s="4">
+      <c r="O24" s="4">
         <v>41922.222222222219</v>
       </c>
-      <c r="O24" s="7">
-        <f t="shared" si="6"/>
+      <c r="P24" s="7">
+        <f t="shared" si="7"/>
         <v>0.47138530625032626</v>
       </c>
-      <c r="P24" s="4">
+      <c r="Q24" s="4">
         <v>25.186584712907131</v>
       </c>
-      <c r="Q24" s="7">
-        <f t="shared" si="7"/>
+      <c r="R24" s="7">
+        <f t="shared" si="8"/>
         <v>0.28740207260269129</v>
       </c>
-      <c r="R24" s="4">
+      <c r="S24" s="4">
         <v>84.041246612466139</v>
       </c>
-      <c r="S24" s="4">
-        <f t="shared" si="8"/>
+      <c r="T24" s="4">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="T24" s="4">
+      <c r="U24" s="4">
         <v>-0.17084387667389045</v>
       </c>
-      <c r="U24" s="4">
-        <f t="shared" si="9"/>
+      <c r="V24" s="4">
+        <f t="shared" si="10"/>
         <v>0.12737834589528135</v>
       </c>
-      <c r="V24" s="4">
+      <c r="W24" s="4">
         <v>7.7777777777777779E-2</v>
       </c>
-      <c r="W24" s="4">
-        <f t="shared" si="10"/>
+      <c r="X24" s="4">
+        <f t="shared" si="11"/>
         <v>9.8176718092566635E-3</v>
       </c>
-      <c r="X24" s="4">
+      <c r="Y24" s="4">
         <v>20.183819384700001</v>
       </c>
-      <c r="Y24" s="4">
-        <f t="shared" si="11"/>
+      <c r="Z24" s="4">
+        <f t="shared" si="12"/>
+        <v>0.99018232819074337</v>
+      </c>
+      <c r="AA24" s="4">
+        <f t="shared" si="13"/>
         <v>0.42998301514486714</v>
       </c>
-      <c r="Z24" s="4">
+      <c r="AB24" s="4">
         <v>8.7666666666666675</v>
       </c>
-      <c r="AA24">
-        <f t="shared" si="12"/>
+      <c r="AC24">
+        <f t="shared" si="14"/>
         <v>0.17230836427167504</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:29">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -22563,75 +22758,83 @@
       <c r="H25" s="4">
         <v>12089300000</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="4">
         <f t="shared" si="3"/>
+        <v>0.67228535523903266</v>
+      </c>
+      <c r="J25" s="7">
+        <f t="shared" si="4"/>
         <v>3.4588439206303022E-2</v>
       </c>
-      <c r="J25" s="4">
+      <c r="K25" s="4">
         <v>1586270778843.7002</v>
       </c>
-      <c r="K25" s="7">
-        <f t="shared" si="4"/>
+      <c r="L25" s="7">
+        <f t="shared" si="5"/>
         <v>7.9997027709221263E-2</v>
       </c>
-      <c r="L25" s="4">
+      <c r="M25" s="4">
         <v>3.0724360928364405</v>
       </c>
-      <c r="M25" s="7">
-        <f t="shared" si="5"/>
+      <c r="N25" s="7">
+        <f t="shared" si="6"/>
         <v>0.29863557027101661</v>
       </c>
-      <c r="N25" s="4">
+      <c r="O25" s="4">
         <v>30913.333333333332</v>
       </c>
-      <c r="O25" s="7">
-        <f t="shared" si="6"/>
+      <c r="P25" s="7">
+        <f t="shared" si="7"/>
         <v>0.3420448018380241</v>
       </c>
-      <c r="P25" s="4">
+      <c r="Q25" s="4">
         <v>33.718064646803874</v>
       </c>
-      <c r="Q25" s="7">
-        <f t="shared" si="7"/>
+      <c r="R25" s="7">
+        <f t="shared" si="8"/>
         <v>0.46289336984153234</v>
       </c>
-      <c r="R25" s="4">
+      <c r="S25" s="4">
         <v>82.525203252032526</v>
       </c>
-      <c r="S25" s="4">
-        <f t="shared" si="8"/>
+      <c r="T25" s="4">
+        <f t="shared" si="9"/>
         <v>0.92287698008411223</v>
       </c>
-      <c r="T25" s="4">
+      <c r="U25" s="4">
         <v>0.4009675106408167</v>
       </c>
-      <c r="U25" s="4">
-        <f t="shared" si="9"/>
+      <c r="V25" s="4">
+        <f t="shared" si="10"/>
         <v>0.21484532932443376</v>
       </c>
-      <c r="V25" s="4">
+      <c r="W25" s="4">
         <v>4.4444444444444446E-2</v>
       </c>
-      <c r="W25" s="4">
-        <f t="shared" si="10"/>
+      <c r="X25" s="4">
+        <f t="shared" si="11"/>
         <v>5.6100981767180933E-3</v>
       </c>
-      <c r="X25" s="4">
+      <c r="Y25" s="4">
         <v>26.794243203374425</v>
       </c>
-      <c r="Y25" s="4">
-        <f t="shared" si="11"/>
+      <c r="Z25" s="4">
+        <f t="shared" si="12"/>
+        <v>0.99438990182328191</v>
+      </c>
+      <c r="AA25" s="4">
+        <f t="shared" si="13"/>
         <v>0.57080720261721862</v>
       </c>
-      <c r="Z25" s="4">
+      <c r="AB25" s="4">
         <v>6.2222222222222223</v>
       </c>
-      <c r="AA25">
-        <f t="shared" si="12"/>
+      <c r="AC25">
+        <f t="shared" si="14"/>
         <v>0.12229744485695566</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:29">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -22659,75 +22862,83 @@
       <c r="H26" s="4">
         <v>520790145.04665059</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="4">
         <f t="shared" si="3"/>
+        <v>0.35900483141625994</v>
+      </c>
+      <c r="J26" s="7">
+        <f t="shared" si="4"/>
         <v>2.186127131613868E-4</v>
       </c>
-      <c r="J26" s="4">
+      <c r="K26" s="4">
         <v>117980711504.489</v>
       </c>
-      <c r="K26" s="7">
-        <f t="shared" si="4"/>
+      <c r="L26" s="7">
+        <f t="shared" si="5"/>
         <v>5.3129693008536717E-3</v>
       </c>
-      <c r="L26" s="4">
+      <c r="M26" s="4">
         <v>1.2671744217758396</v>
       </c>
-      <c r="M26" s="7">
-        <f t="shared" si="5"/>
+      <c r="N26" s="7">
+        <f t="shared" si="6"/>
         <v>7.7793819035668369E-3</v>
       </c>
-      <c r="N26" s="4">
+      <c r="O26" s="4">
         <v>30490</v>
       </c>
-      <c r="O26" s="7">
-        <f t="shared" si="6"/>
+      <c r="P26" s="7">
+        <f t="shared" si="7"/>
         <v>0.33707117121821312</v>
       </c>
-      <c r="P26" s="4">
+      <c r="Q26" s="4">
         <v>52.38505764016891</v>
       </c>
-      <c r="Q26" s="7">
-        <f t="shared" si="7"/>
+      <c r="R26" s="7">
+        <f t="shared" si="8"/>
         <v>0.84687069163518813</v>
       </c>
-      <c r="R26" s="4">
+      <c r="S26" s="4">
         <v>79.183666666666653</v>
       </c>
-      <c r="S26" s="4">
-        <f t="shared" si="8"/>
+      <c r="T26" s="4">
+        <f t="shared" si="9"/>
         <v>0.75288883901331149</v>
       </c>
-      <c r="T26" s="4">
+      <c r="U26" s="4">
         <v>3.8385371578107303</v>
       </c>
-      <c r="U26" s="4">
-        <f t="shared" si="9"/>
+      <c r="V26" s="4">
+        <f t="shared" si="10"/>
         <v>0.74067229611075036</v>
       </c>
-      <c r="V26" s="4">
+      <c r="W26" s="4">
         <v>0</v>
       </c>
-      <c r="W26" s="4">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="X26" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="4">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
+      <c r="Y26" s="4">
+        <v>0</v>
+      </c>
       <c r="Z26" s="4">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AA26" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AB26" s="4">
         <v>27.755555555555556</v>
       </c>
-      <c r="AA26">
-        <f t="shared" si="12"/>
+      <c r="AC26">
+        <f t="shared" si="14"/>
         <v>0.54553395937977722</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:29">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -22755,75 +22966,83 @@
       <c r="H27" s="4">
         <v>36907085893.541451</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="4">
         <f t="shared" si="3"/>
+        <v>0.54540811409149403</v>
+      </c>
+      <c r="J27" s="7">
+        <f t="shared" si="4"/>
         <v>0.1083216171004059</v>
       </c>
-      <c r="J27" s="4">
+      <c r="K27" s="4">
         <v>69148175010.027557</v>
       </c>
-      <c r="K27" s="7">
-        <f t="shared" si="4"/>
+      <c r="L27" s="7">
+        <f t="shared" si="5"/>
         <v>2.8291194888133983E-3</v>
       </c>
-      <c r="L27" s="4">
+      <c r="M27" s="4">
         <v>2.8752177081187114</v>
       </c>
-      <c r="M27" s="7">
-        <f t="shared" si="5"/>
+      <c r="N27" s="7">
+        <f t="shared" si="6"/>
         <v>0.2668605713472964</v>
       </c>
-      <c r="N27" s="4">
+      <c r="O27" s="4">
         <v>80002.222222222219</v>
       </c>
-      <c r="O27" s="7">
-        <f t="shared" si="6"/>
+      <c r="P27" s="7">
+        <f t="shared" si="7"/>
         <v>0.91877708735836239</v>
       </c>
-      <c r="P27" s="4">
+      <c r="Q27" s="4">
         <v>11.214581234961967</v>
       </c>
-      <c r="Q27" s="7">
-        <f t="shared" si="7"/>
+      <c r="R27" s="7">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R27" s="4">
+      <c r="S27" s="4">
         <v>82.325474254742531</v>
       </c>
-      <c r="S27" s="4">
-        <f t="shared" si="8"/>
+      <c r="T27" s="4">
+        <f t="shared" si="9"/>
         <v>0.91271651644712837</v>
       </c>
-      <c r="T27" s="4">
+      <c r="U27" s="4">
         <v>2.0767538910960521</v>
       </c>
-      <c r="U27" s="4">
-        <f t="shared" si="9"/>
+      <c r="V27" s="4">
+        <f t="shared" si="10"/>
         <v>0.47118156680024764</v>
       </c>
-      <c r="V27" s="4">
+      <c r="W27" s="4">
         <v>0.14444444444444446</v>
       </c>
-      <c r="W27" s="4">
-        <f t="shared" si="10"/>
+      <c r="X27" s="4">
+        <f t="shared" si="11"/>
         <v>1.8232819074333804E-2</v>
       </c>
-      <c r="X27" s="4">
+      <c r="Y27" s="4">
         <v>40.486115709671964</v>
       </c>
-      <c r="Y27" s="4">
-        <f t="shared" si="11"/>
+      <c r="Z27" s="4">
+        <f t="shared" si="12"/>
+        <v>0.98176718092566617</v>
+      </c>
+      <c r="AA27" s="4">
+        <f t="shared" si="13"/>
         <v>0.86248998628796791</v>
       </c>
-      <c r="Z27" s="4">
+      <c r="AB27" s="4">
         <v>12.833333333333334</v>
       </c>
-      <c r="AA27">
-        <f t="shared" si="12"/>
+      <c r="AC27">
+        <f t="shared" si="14"/>
         <v>0.25223848001747107</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:29">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -22851,75 +23070,83 @@
       <c r="H28" s="4">
         <v>3138554032.8593264</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="4">
         <f t="shared" si="3"/>
+        <v>0.91527088773880072</v>
+      </c>
+      <c r="J28" s="7">
+        <f t="shared" si="4"/>
         <v>7.9959402818983172E-3</v>
       </c>
-      <c r="J28" s="4">
+      <c r="K28" s="4">
         <v>13527629832.543068</v>
       </c>
-      <c r="K28" s="7">
-        <f t="shared" si="4"/>
+      <c r="L28" s="7">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L28" s="4">
+      <c r="M28" s="4">
         <v>7.4256057109276963</v>
       </c>
-      <c r="M28" s="7">
-        <f t="shared" si="5"/>
+      <c r="N28" s="7">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="N28" s="4">
+      <c r="O28" s="4">
         <v>26195.555555555555</v>
       </c>
-      <c r="O28" s="7">
-        <f t="shared" si="6"/>
+      <c r="P28" s="7">
+        <f t="shared" si="7"/>
         <v>0.28661688684663983</v>
       </c>
-      <c r="P28" s="4">
+      <c r="Q28" s="4">
         <v>12.754115810608377</v>
       </c>
-      <c r="Q28" s="7">
-        <f t="shared" si="7"/>
+      <c r="R28" s="7">
+        <f t="shared" si="8"/>
         <v>3.1668001556306204E-2</v>
       </c>
-      <c r="R28" s="4">
+      <c r="S28" s="4">
         <v>82.334146341463438</v>
       </c>
-      <c r="S28" s="4">
-        <f t="shared" si="8"/>
+      <c r="T28" s="4">
+        <f t="shared" si="9"/>
         <v>0.91315767633367506</v>
       </c>
-      <c r="T28" s="4">
+      <c r="U28" s="4">
         <v>2.3409786732056612</v>
       </c>
-      <c r="U28" s="4">
-        <f t="shared" si="9"/>
+      <c r="V28" s="4">
+        <f t="shared" si="10"/>
         <v>0.51159864339412986</v>
       </c>
-      <c r="V28" s="4">
+      <c r="W28" s="4">
         <v>0.12222222222222223</v>
       </c>
-      <c r="W28" s="4">
-        <f t="shared" si="10"/>
+      <c r="X28" s="4">
+        <f t="shared" si="11"/>
         <v>1.5427769985974758E-2</v>
       </c>
-      <c r="X28" s="4">
+      <c r="Y28" s="4">
         <v>37.025369994157714</v>
       </c>
-      <c r="Y28" s="4">
-        <f t="shared" si="11"/>
+      <c r="Z28" s="4">
+        <f t="shared" si="12"/>
+        <v>0.98457223001402527</v>
+      </c>
+      <c r="AA28" s="4">
+        <f t="shared" si="13"/>
         <v>0.78876450108398821</v>
       </c>
-      <c r="Z28" s="4">
+      <c r="AB28" s="4">
         <v>19.833333333333332</v>
       </c>
-      <c r="AA28">
-        <f t="shared" si="12"/>
+      <c r="AC28">
+        <f t="shared" si="14"/>
         <v>0.38982310548154614</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:29">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -22947,75 +23174,83 @@
       <c r="H29" s="4">
         <v>35568944941</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="4">
         <f t="shared" si="3"/>
+        <v>0.91777087198802854</v>
+      </c>
+      <c r="J29" s="7">
+        <f t="shared" si="4"/>
         <v>0.10434602534841164</v>
       </c>
-      <c r="J29" s="4">
+      <c r="K29" s="4">
         <v>1205982250923.5647</v>
       </c>
-      <c r="K29" s="7">
-        <f t="shared" si="4"/>
+      <c r="L29" s="7">
+        <f t="shared" si="5"/>
         <v>6.0653785346567533E-2</v>
       </c>
-      <c r="L29" s="4">
+      <c r="M29" s="4">
         <v>2.7366054753875955</v>
       </c>
-      <c r="M29" s="7">
-        <f t="shared" si="5"/>
+      <c r="N29" s="7">
+        <f t="shared" si="6"/>
         <v>0.24452794981127926</v>
       </c>
-      <c r="N29" s="4">
+      <c r="O29" s="4">
         <v>9698.8888888888887</v>
       </c>
-      <c r="O29" s="7">
-        <f t="shared" si="6"/>
+      <c r="P29" s="7">
+        <f t="shared" si="7"/>
         <v>9.2801942457312922E-2</v>
       </c>
-      <c r="P29" s="4">
+      <c r="Q29" s="4">
         <v>30.719654086077199</v>
       </c>
-      <c r="Q29" s="7">
-        <f t="shared" si="7"/>
+      <c r="R29" s="7">
+        <f t="shared" si="8"/>
         <v>0.40121650216633331</v>
       </c>
-      <c r="R29" s="4">
+      <c r="S29" s="4">
         <v>73.481222222222229</v>
       </c>
-      <c r="S29" s="4">
-        <f t="shared" si="8"/>
+      <c r="T29" s="4">
+        <f t="shared" si="9"/>
         <v>0.46279836539233032</v>
       </c>
-      <c r="T29" s="4">
+      <c r="U29" s="4">
         <v>1.0042099739074721</v>
       </c>
-      <c r="U29" s="4">
-        <f t="shared" si="9"/>
+      <c r="V29" s="4">
+        <f t="shared" si="10"/>
         <v>0.30712015929256459</v>
       </c>
-      <c r="V29" s="4">
+      <c r="W29" s="4">
         <v>1.4</v>
       </c>
-      <c r="W29" s="4">
-        <f t="shared" si="10"/>
+      <c r="X29" s="4">
+        <f t="shared" si="11"/>
         <v>0.17671809256661991</v>
       </c>
-      <c r="X29" s="4">
+      <c r="Y29" s="4">
         <v>19.106486225873475</v>
       </c>
-      <c r="Y29" s="4">
-        <f t="shared" si="11"/>
+      <c r="Z29" s="4">
+        <f t="shared" si="12"/>
+        <v>0.82328190743338014</v>
+      </c>
+      <c r="AA29" s="4">
+        <f t="shared" si="13"/>
         <v>0.40703220731615058</v>
       </c>
-      <c r="Z29" s="4">
+      <c r="AB29" s="4">
         <v>6.5333333333333332</v>
       </c>
-      <c r="AA29">
-        <f t="shared" si="12"/>
+      <c r="AC29">
+        <f t="shared" si="14"/>
         <v>0.12841231709980344</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:29">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -23043,75 +23278,83 @@
       <c r="H30" s="4">
         <v>249543011256.71957</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="4">
         <f t="shared" si="3"/>
+        <v>0.76088717716209209</v>
+      </c>
+      <c r="J30" s="7">
+        <f t="shared" si="4"/>
         <v>0.74005897589358105</v>
       </c>
-      <c r="J30" s="4">
+      <c r="K30" s="4">
         <v>877746851910.68811</v>
       </c>
-      <c r="K30" s="7">
-        <f t="shared" si="4"/>
+      <c r="L30" s="7">
+        <f t="shared" si="5"/>
         <v>4.3958207097512879E-2</v>
       </c>
-      <c r="L30" s="4">
+      <c r="M30" s="4">
         <v>2.5235577154904667</v>
       </c>
-      <c r="M30" s="7">
-        <f t="shared" si="5"/>
+      <c r="N30" s="7">
+        <f t="shared" si="6"/>
         <v>0.21020258835412442</v>
       </c>
-      <c r="N30" s="4">
+      <c r="O30" s="4">
         <v>50376.666666666664</v>
       </c>
-      <c r="O30" s="7">
-        <f t="shared" si="6"/>
+      <c r="P30" s="7">
+        <f t="shared" si="7"/>
         <v>0.5707143230118531</v>
       </c>
-      <c r="P30" s="4">
+      <c r="Q30" s="4">
         <v>18.061912710970102</v>
       </c>
-      <c r="Q30" s="7">
-        <f t="shared" si="7"/>
+      <c r="R30" s="7">
+        <f t="shared" si="8"/>
         <v>0.14084860922835987</v>
       </c>
-      <c r="R30" s="4">
+      <c r="S30" s="4">
         <v>81.620867208672095</v>
       </c>
-      <c r="S30" s="4">
-        <f t="shared" si="8"/>
+      <c r="T30" s="4">
+        <f t="shared" si="9"/>
         <v>0.87687227566537229</v>
       </c>
-      <c r="T30" s="4">
+      <c r="U30" s="4">
         <v>0.5043652870140205</v>
       </c>
-      <c r="U30" s="4">
-        <f t="shared" si="9"/>
+      <c r="V30" s="4">
+        <f t="shared" si="10"/>
         <v>0.23066154388972493</v>
       </c>
-      <c r="V30" s="4">
+      <c r="W30" s="4">
         <v>7.7777777777777779E-2</v>
       </c>
-      <c r="W30" s="4">
-        <f t="shared" si="10"/>
+      <c r="X30" s="4">
+        <f t="shared" si="11"/>
         <v>9.8176718092566635E-3</v>
       </c>
-      <c r="X30" s="4">
+      <c r="Y30" s="4">
         <v>39.209170985322288</v>
       </c>
-      <c r="Y30" s="4">
-        <f t="shared" si="11"/>
+      <c r="Z30" s="4">
+        <f t="shared" si="12"/>
+        <v>0.99018232819074337</v>
+      </c>
+      <c r="AA30" s="4">
+        <f t="shared" si="13"/>
         <v>0.83528678295543046</v>
       </c>
-      <c r="Z30" s="4">
+      <c r="AB30" s="4">
         <v>2.7777777777777777</v>
       </c>
-      <c r="AA30">
-        <f t="shared" si="12"/>
+      <c r="AC30">
+        <f t="shared" si="14"/>
         <v>5.4597073596855207E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:29">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -23139,75 +23382,83 @@
       <c r="H31" s="4">
         <v>9385159847.9544601</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="4">
         <f t="shared" si="3"/>
+        <v>0.81184932129294518</v>
+      </c>
+      <c r="J31" s="7">
+        <f t="shared" si="4"/>
         <v>2.6554489371428836E-2</v>
       </c>
-      <c r="J31" s="4">
+      <c r="K31" s="4">
         <v>428945384389.38727</v>
       </c>
-      <c r="K31" s="7">
-        <f t="shared" si="4"/>
+      <c r="L31" s="7">
+        <f t="shared" si="5"/>
         <v>2.1130078133279846E-2</v>
       </c>
-      <c r="L31" s="4">
+      <c r="M31" s="4">
         <v>1.763894696649553</v>
       </c>
-      <c r="M31" s="7">
-        <f t="shared" si="5"/>
+      <c r="N31" s="7">
+        <f t="shared" si="6"/>
         <v>8.780886912450854E-2</v>
       </c>
-      <c r="N31" s="4">
+      <c r="O31" s="4">
         <v>86915.555555555562</v>
       </c>
-      <c r="O31" s="7">
-        <f t="shared" si="6"/>
+      <c r="P31" s="7">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="P31" s="4">
+      <c r="Q31" s="4">
         <v>31.194607233438816</v>
       </c>
-      <c r="Q31" s="7">
-        <f t="shared" si="7"/>
+      <c r="R31" s="7">
+        <f t="shared" si="8"/>
         <v>0.41098621909750715</v>
       </c>
-      <c r="R31" s="4">
+      <c r="S31" s="4">
         <v>82.5848238482385</v>
       </c>
-      <c r="S31" s="4">
-        <f t="shared" si="8"/>
+      <c r="T31" s="4">
+        <f t="shared" si="9"/>
         <v>0.92590995430410772</v>
       </c>
-      <c r="T31" s="4">
+      <c r="U31" s="4">
         <v>0.83103198047406102</v>
       </c>
-      <c r="U31" s="4">
-        <f t="shared" si="9"/>
+      <c r="V31" s="4">
+        <f t="shared" si="10"/>
         <v>0.28063003157218502</v>
       </c>
-      <c r="V31" s="4">
+      <c r="W31" s="4">
         <v>0.16666666666666666</v>
       </c>
-      <c r="W31" s="4">
-        <f t="shared" si="10"/>
+      <c r="X31" s="4">
+        <f t="shared" si="11"/>
         <v>2.1037868162692847E-2</v>
       </c>
-      <c r="X31" s="4">
+      <c r="Y31" s="4">
         <v>46.511230024560774</v>
       </c>
-      <c r="Y31" s="4">
-        <f t="shared" si="11"/>
+      <c r="Z31" s="4">
+        <f t="shared" si="12"/>
+        <v>0.97896213183730718</v>
+      </c>
+      <c r="AA31" s="4">
+        <f t="shared" si="13"/>
         <v>0.9908451191956783</v>
       </c>
-      <c r="Z31" s="4">
+      <c r="AB31" s="4">
         <v>3.4444444444444446</v>
       </c>
-      <c r="AA31">
-        <f t="shared" si="12"/>
+      <c r="AC31">
+        <f t="shared" si="14"/>
         <v>6.7700371260100464E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:29">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -23235,75 +23486,83 @@
       <c r="H32" s="4">
         <v>447207483.02389497</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="4">
         <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J32" s="7">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J32" s="4">
+      <c r="K32" s="4">
         <v>38139525031.756256</v>
       </c>
-      <c r="K32" s="7">
-        <f t="shared" si="4"/>
+      <c r="L32" s="7">
+        <f t="shared" si="5"/>
         <v>1.2518754022014433E-3</v>
       </c>
-      <c r="L32" s="4">
+      <c r="M32" s="4">
         <v>4.7051764659231399</v>
       </c>
-      <c r="M32" s="7">
-        <f t="shared" si="5"/>
+      <c r="N32" s="7">
+        <f t="shared" si="6"/>
         <v>0.56169585074029804</v>
       </c>
-      <c r="N32" s="4">
+      <c r="O32" s="4">
         <v>5923.333333333333</v>
       </c>
-      <c r="O32" s="7">
-        <f t="shared" si="6"/>
+      <c r="P32" s="7">
+        <f t="shared" si="7"/>
         <v>4.8443945485875405E-2</v>
       </c>
-      <c r="P32" s="4">
+      <c r="Q32" s="4">
         <v>33.72798962682802</v>
       </c>
-      <c r="Q32" s="7">
-        <f t="shared" si="7"/>
+      <c r="R32" s="7">
+        <f t="shared" si="8"/>
         <v>0.46309752523227371</v>
       </c>
-      <c r="R32" s="4">
+      <c r="S32" s="4">
         <v>72.959666666666664</v>
       </c>
-      <c r="S32" s="4">
-        <f t="shared" si="8"/>
+      <c r="T32" s="4">
+        <f t="shared" si="9"/>
         <v>0.4362661826407439</v>
       </c>
-      <c r="T32" s="4">
+      <c r="U32" s="4">
         <v>1.3752993385615087</v>
       </c>
-      <c r="U32" s="4">
-        <f t="shared" si="9"/>
+      <c r="V32" s="4">
+        <f t="shared" si="10"/>
         <v>0.36388374957599035</v>
       </c>
-      <c r="V32" s="4">
+      <c r="W32" s="4">
         <v>1.4111111111111112</v>
       </c>
-      <c r="W32" s="4">
-        <f t="shared" si="10"/>
+      <c r="X32" s="4">
+        <f t="shared" si="11"/>
         <v>0.17812061711079946</v>
       </c>
-      <c r="X32" s="4">
+      <c r="Y32" s="4">
         <v>16.984016740966247</v>
       </c>
-      <c r="Y32" s="4">
-        <f t="shared" si="11"/>
+      <c r="Z32" s="4">
+        <f t="shared" si="12"/>
+        <v>0.82187938288920059</v>
+      </c>
+      <c r="AA32" s="4">
+        <f t="shared" si="13"/>
         <v>0.36181649212969863</v>
       </c>
-      <c r="Z32" s="4">
+      <c r="AB32" s="4">
         <v>27.222222222222221</v>
       </c>
-      <c r="AA32">
-        <f t="shared" si="12"/>
+      <c r="AC32">
+        <f t="shared" si="14"/>
         <v>0.53505132124918098</v>
       </c>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:29">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -23331,75 +23590,83 @@
       <c r="H33" s="4">
         <v>6023181363.9524393</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="4">
         <f t="shared" si="3"/>
+        <v>0.98129709224775663</v>
+      </c>
+      <c r="J33" s="7">
+        <f t="shared" si="4"/>
         <v>1.6566114151317934E-2</v>
       </c>
-      <c r="J33" s="4">
+      <c r="K33" s="4">
         <v>207838727235.56119</v>
       </c>
-      <c r="K33" s="7">
-        <f t="shared" si="4"/>
+      <c r="L33" s="7">
+        <f t="shared" si="5"/>
         <v>9.8835657004334911E-3</v>
       </c>
-      <c r="L33" s="4">
+      <c r="M33" s="4">
         <v>4.6898208375364261</v>
       </c>
-      <c r="M33" s="7">
-        <f t="shared" si="5"/>
+      <c r="N33" s="7">
+        <f t="shared" si="6"/>
         <v>0.55922181630299539</v>
       </c>
-      <c r="N33" s="4">
+      <c r="O33" s="4">
         <v>6320</v>
       </c>
-      <c r="O33" s="7">
-        <f t="shared" si="6"/>
+      <c r="P33" s="7">
+        <f t="shared" si="7"/>
         <v>5.3104276539084116E-2</v>
       </c>
-      <c r="P33" s="4">
+      <c r="Q33" s="4">
         <v>31.6693159263056</v>
       </c>
-      <c r="Q33" s="7">
-        <f t="shared" si="7"/>
+      <c r="R33" s="7">
+        <f t="shared" si="8"/>
         <v>0.42075090763539558</v>
       </c>
-      <c r="R33" s="4">
+      <c r="S33" s="4">
         <v>75.088444444444434</v>
       </c>
-      <c r="S33" s="4">
-        <f t="shared" si="8"/>
+      <c r="T33" s="4">
+        <f t="shared" si="9"/>
         <v>0.54455976792784067</v>
       </c>
-      <c r="T33" s="4">
+      <c r="U33" s="4">
         <v>1.3904610595757132</v>
       </c>
-      <c r="U33" s="4">
-        <f t="shared" si="9"/>
+      <c r="V33" s="4">
+        <f t="shared" si="10"/>
         <v>0.36620295837477729</v>
       </c>
-      <c r="V33" s="4">
+      <c r="W33" s="4">
         <v>4.3777777777777773</v>
       </c>
-      <c r="W33" s="4">
-        <f t="shared" si="10"/>
+      <c r="X33" s="4">
+        <f t="shared" si="11"/>
         <v>0.55259467040673216</v>
       </c>
-      <c r="X33" s="4">
+      <c r="Y33" s="4">
         <v>19.634605160349295</v>
       </c>
-      <c r="Y33" s="4">
-        <f t="shared" si="11"/>
+      <c r="Z33" s="4">
+        <f t="shared" si="12"/>
+        <v>0.44740532959326784</v>
+      </c>
+      <c r="AA33" s="4">
+        <f t="shared" si="13"/>
         <v>0.41828291103445397</v>
       </c>
-      <c r="Z33" s="4">
+      <c r="AB33" s="4">
         <v>28.722222222222221</v>
       </c>
-      <c r="AA33">
-        <f t="shared" si="12"/>
+      <c r="AC33">
+        <f t="shared" si="14"/>
         <v>0.56453374099148279</v>
       </c>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:29">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -23427,75 +23694,83 @@
       <c r="H34" s="4">
         <v>8567627594.3622847</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="4">
         <f t="shared" si="3"/>
+        <v>0.8923329803010307</v>
+      </c>
+      <c r="J34" s="7">
+        <f t="shared" si="4"/>
         <v>2.4125616330664724E-2</v>
       </c>
-      <c r="J34" s="4">
+      <c r="K34" s="4">
         <v>227612106678.28494</v>
       </c>
-      <c r="K34" s="7">
-        <f t="shared" si="4"/>
+      <c r="L34" s="7">
+        <f t="shared" si="5"/>
         <v>1.0889331698638005E-2</v>
       </c>
-      <c r="L34" s="4">
+      <c r="M34" s="4">
         <v>2.7320777988373237</v>
       </c>
-      <c r="M34" s="7">
-        <f t="shared" si="5"/>
+      <c r="N34" s="7">
+        <f t="shared" si="6"/>
         <v>0.2437984695565974</v>
       </c>
-      <c r="N34" s="4">
+      <c r="O34" s="4">
         <v>21560</v>
       </c>
-      <c r="O34" s="7">
-        <f t="shared" si="6"/>
+      <c r="P34" s="7">
+        <f t="shared" si="7"/>
         <v>0.23215497885227923</v>
       </c>
-      <c r="P34" s="4">
+      <c r="Q34" s="4">
         <v>19.211802638451587</v>
       </c>
-      <c r="Q34" s="7">
-        <f t="shared" si="7"/>
+      <c r="R34" s="7">
+        <f t="shared" si="8"/>
         <v>0.16450167723287346</v>
       </c>
-      <c r="R34" s="4">
+      <c r="S34" s="4">
         <v>81.173983739837396</v>
       </c>
-      <c r="S34" s="4">
-        <f t="shared" si="8"/>
+      <c r="T34" s="4">
+        <f t="shared" si="9"/>
         <v>0.85413875526186489</v>
       </c>
-      <c r="T34" s="4">
+      <c r="U34" s="4">
         <v>0.13367984067760533</v>
       </c>
-      <c r="U34" s="4">
-        <f t="shared" si="9"/>
+      <c r="V34" s="4">
+        <f t="shared" si="10"/>
         <v>0.17395973886902372</v>
       </c>
-      <c r="V34" s="4">
+      <c r="W34" s="4">
         <v>0.39999999999999997</v>
       </c>
-      <c r="W34" s="4">
-        <f t="shared" si="10"/>
+      <c r="X34" s="4">
+        <f t="shared" si="11"/>
         <v>5.0490883590462832E-2</v>
       </c>
-      <c r="X34" s="4">
+      <c r="Y34" s="4">
         <v>37.666241489382145</v>
       </c>
-      <c r="Y34" s="4">
-        <f t="shared" si="11"/>
+      <c r="Z34" s="4">
+        <f t="shared" si="12"/>
+        <v>0.94950911640953717</v>
+      </c>
+      <c r="AA34" s="4">
+        <f t="shared" si="13"/>
         <v>0.80241721232683094</v>
       </c>
-      <c r="Z34" s="4">
+      <c r="AB34" s="4">
         <v>4.833333333333333</v>
       </c>
-      <c r="AA34">
-        <f t="shared" si="12"/>
+      <c r="AC34">
+        <f t="shared" si="14"/>
         <v>9.499890805852805E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:29">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -23523,75 +23798,83 @@
       <c r="H35" s="4">
         <v>967788461.53846002</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="4">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="7">
+        <f t="shared" si="4"/>
         <v>1.5466363543368952E-3</v>
       </c>
-      <c r="J35" s="4">
+      <c r="K35" s="4">
         <v>173642731239.52133</v>
       </c>
-      <c r="K35" s="7">
-        <f t="shared" si="4"/>
+      <c r="L35" s="7">
+        <f t="shared" si="5"/>
         <v>8.1441983784651326E-3</v>
       </c>
-      <c r="L35" s="4">
+      <c r="M35" s="4">
         <v>3.1869055830185054</v>
       </c>
-      <c r="M35" s="7">
-        <f t="shared" si="5"/>
+      <c r="N35" s="7">
+        <f t="shared" si="6"/>
         <v>0.31707841439297713</v>
       </c>
-      <c r="N35" s="4">
+      <c r="O35" s="4">
         <v>69307.777777777781</v>
       </c>
-      <c r="O35" s="7">
-        <f t="shared" si="6"/>
+      <c r="P35" s="7">
+        <f t="shared" si="7"/>
         <v>0.79313090700224531</v>
       </c>
-      <c r="P35" s="4">
+      <c r="Q35" s="4">
         <v>59.829413241619967</v>
       </c>
-      <c r="Q35" s="7">
-        <f t="shared" si="7"/>
+      <c r="R35" s="7">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="R35" s="4">
+      <c r="S35" s="4">
         <v>80.086333333333343</v>
       </c>
-      <c r="S35" s="4">
-        <f t="shared" si="8"/>
+      <c r="T35" s="4">
+        <f t="shared" si="9"/>
         <v>0.79880862015389298</v>
       </c>
-      <c r="T35" s="4">
+      <c r="U35" s="4">
         <v>5.5338801125630273</v>
       </c>
-      <c r="U35" s="4">
-        <f t="shared" si="9"/>
+      <c r="V35" s="4">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="V35" s="4">
+      <c r="W35" s="4">
         <v>0</v>
       </c>
-      <c r="W35" s="4">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
       <c r="X35" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="4">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
+      <c r="Y35" s="4">
+        <v>0</v>
+      </c>
       <c r="Z35" s="4">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AA35" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AB35" s="4">
         <v>7.3222222222222229</v>
       </c>
-      <c r="AA35">
-        <f t="shared" si="12"/>
+      <c r="AC35">
+        <f t="shared" si="14"/>
         <v>0.14391788600131034</v>
       </c>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:29">
       <c r="A36" t="s">
         <v>48</v>
       </c>
@@ -23619,75 +23902,83 @@
       <c r="H36" s="4">
         <v>7487040594.3928566</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="4">
         <f t="shared" si="3"/>
+        <v>0.5483844080378466</v>
+      </c>
+      <c r="J36" s="7">
+        <f t="shared" si="4"/>
         <v>2.0915212556509539E-2</v>
       </c>
-      <c r="J36" s="4">
+      <c r="K36" s="4">
         <v>738654778646.24548</v>
       </c>
-      <c r="K36" s="7">
-        <f t="shared" si="4"/>
+      <c r="L36" s="7">
+        <f t="shared" si="5"/>
         <v>3.6883337659318484E-2</v>
       </c>
-      <c r="L36" s="4">
+      <c r="M36" s="4">
         <v>2.6025287402011514</v>
       </c>
-      <c r="M36" s="7">
-        <f t="shared" si="5"/>
+      <c r="N36" s="7">
+        <f t="shared" si="6"/>
         <v>0.22292606861575703</v>
       </c>
-      <c r="N36" s="4">
+      <c r="O36" s="4">
         <v>19662.222222222223</v>
       </c>
-      <c r="O36" s="7">
-        <f t="shared" si="6"/>
+      <c r="P36" s="7">
+        <f t="shared" si="7"/>
         <v>0.20985849302908463</v>
       </c>
-      <c r="P36" s="4">
+      <c r="Q36" s="4">
         <v>48.2392209008473</v>
       </c>
-      <c r="Q36" s="7">
-        <f t="shared" si="7"/>
+      <c r="R36" s="7">
+        <f t="shared" si="8"/>
         <v>0.76159143491053627</v>
       </c>
-      <c r="R36" s="4">
+      <c r="S36" s="4">
         <v>76.912888888888887</v>
       </c>
-      <c r="S36" s="4">
-        <f t="shared" si="8"/>
+      <c r="T36" s="4">
+        <f t="shared" si="9"/>
         <v>0.63737153630897447</v>
       </c>
-      <c r="T36" s="4">
+      <c r="U36" s="4">
         <v>1.9403085073022535</v>
       </c>
-      <c r="U36" s="4">
-        <f t="shared" si="9"/>
+      <c r="V36" s="4">
+        <f t="shared" si="10"/>
         <v>0.45031023337101639</v>
       </c>
-      <c r="V36" s="4">
+      <c r="W36" s="4">
         <v>0</v>
       </c>
-      <c r="W36" s="4">
-        <f t="shared" si="10"/>
+      <c r="X36" s="4">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="X36" s="4">
+      <c r="Y36" s="4">
         <v>26.78399032150978</v>
       </c>
-      <c r="Y36" s="4">
-        <f t="shared" si="11"/>
+      <c r="Z36" s="4">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AA36" s="4">
+        <f t="shared" si="13"/>
         <v>0.57058878186274908</v>
       </c>
-      <c r="Z36" s="4">
+      <c r="AB36" s="4">
         <v>15.355555555555554</v>
       </c>
-      <c r="AA36">
-        <f t="shared" si="12"/>
+      <c r="AC36">
+        <f t="shared" si="14"/>
         <v>0.30181262284341553</v>
       </c>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:29">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -23715,75 +24006,83 @@
       <c r="H37" s="4">
         <v>85981234133.795746</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="4">
         <f t="shared" si="3"/>
+        <v>0.78248129432014724</v>
+      </c>
+      <c r="J37" s="7">
+        <f t="shared" si="4"/>
         <v>0.2541199940274102</v>
       </c>
-      <c r="J37" s="4">
+      <c r="K37" s="4">
         <v>343023461674.00702</v>
       </c>
-      <c r="K37" s="7">
-        <f t="shared" si="4"/>
+      <c r="L37" s="7">
+        <f t="shared" si="5"/>
         <v>1.675968972204215E-2</v>
       </c>
-      <c r="L37" s="4">
+      <c r="M37" s="4">
         <v>4.0405054750460359</v>
       </c>
-      <c r="M37" s="7">
-        <f t="shared" si="5"/>
+      <c r="N37" s="7">
+        <f t="shared" si="6"/>
         <v>0.45460684861721429</v>
       </c>
-      <c r="N37" s="4">
+      <c r="O37" s="4">
         <v>56176.666666666664</v>
       </c>
-      <c r="O37" s="7">
-        <f t="shared" si="6"/>
+      <c r="P37" s="7">
+        <f t="shared" si="7"/>
         <v>0.63885697874784597</v>
       </c>
-      <c r="P37" s="4">
+      <c r="Q37" s="4">
         <v>24.082918962301683</v>
       </c>
-      <c r="Q37" s="7">
-        <f t="shared" si="7"/>
+      <c r="R37" s="7">
+        <f t="shared" si="8"/>
         <v>0.26469982917100987</v>
       </c>
-      <c r="R37" s="4">
+      <c r="S37" s="4">
         <v>83.13631436314364</v>
       </c>
-      <c r="S37" s="4">
-        <f t="shared" si="8"/>
+      <c r="T37" s="4">
+        <f t="shared" si="9"/>
         <v>0.95396496583905965</v>
       </c>
-      <c r="T37" s="4">
+      <c r="U37" s="4">
         <v>1.0148777698658695</v>
       </c>
-      <c r="U37" s="4">
-        <f t="shared" si="9"/>
+      <c r="V37" s="4">
+        <f t="shared" si="10"/>
         <v>0.30875195598815086</v>
       </c>
-      <c r="V37" s="4">
+      <c r="W37" s="4">
         <v>0</v>
       </c>
-      <c r="W37" s="4">
-        <f t="shared" si="10"/>
+      <c r="X37" s="4">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="X37" s="4">
+      <c r="Y37" s="4">
         <v>18.689506955079096</v>
       </c>
-      <c r="Y37" s="4">
-        <f t="shared" si="11"/>
+      <c r="Z37" s="4">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AA37" s="4">
+        <f t="shared" si="13"/>
         <v>0.39814915100793841</v>
       </c>
-      <c r="Z37" s="4">
+      <c r="AB37" s="4">
         <v>1.7222222222222223</v>
       </c>
-      <c r="AA37">
-        <f t="shared" si="12"/>
+      <c r="AC37">
+        <f t="shared" si="14"/>
         <v>3.3850185630050232E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:29">
       <c r="A38" t="s">
         <v>50</v>
       </c>
@@ -23811,75 +24110,83 @@
       <c r="H38" s="4">
         <v>8328272982.2561493</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="4">
         <f t="shared" si="3"/>
+        <v>0.79925860887160882</v>
+      </c>
+      <c r="J38" s="7">
+        <f t="shared" si="4"/>
         <v>2.3414498253093247E-2</v>
       </c>
-      <c r="J38" s="4">
+      <c r="K38" s="4">
         <v>375906149074.44556</v>
       </c>
-      <c r="K38" s="7">
-        <f t="shared" si="4"/>
+      <c r="L38" s="7">
+        <f t="shared" si="5"/>
         <v>1.8432256063711131E-2</v>
       </c>
-      <c r="L38" s="4">
+      <c r="M38" s="4">
         <v>1.7228169075985571</v>
       </c>
-      <c r="M38" s="7">
-        <f t="shared" si="5"/>
+      <c r="N38" s="7">
+        <f t="shared" si="6"/>
         <v>8.1190588051208254E-2</v>
       </c>
-      <c r="N38" s="4">
+      <c r="O38" s="4">
         <v>6621.1111111111113</v>
       </c>
-      <c r="O38" s="7">
-        <f t="shared" si="6"/>
+      <c r="P38" s="7">
+        <f t="shared" si="7"/>
         <v>5.6641950811968045E-2</v>
       </c>
-      <c r="P38" s="4">
+      <c r="Q38" s="4">
         <v>23.88872620034612</v>
       </c>
-      <c r="Q38" s="7">
-        <f t="shared" si="7"/>
+      <c r="R38" s="7">
+        <f t="shared" si="8"/>
         <v>0.26070531239619171</v>
       </c>
-      <c r="R38" s="4">
+      <c r="S38" s="4">
         <v>64.38377777777778</v>
       </c>
-      <c r="S38" s="4">
-        <f t="shared" si="8"/>
+      <c r="T38" s="4">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T38" s="4">
+      <c r="U38" s="4">
         <v>1.234879808155614</v>
       </c>
-      <c r="U38" s="4">
-        <f t="shared" si="9"/>
+      <c r="V38" s="4">
+        <f t="shared" si="10"/>
         <v>0.34240451182100307</v>
       </c>
-      <c r="V38" s="4">
+      <c r="W38" s="4">
         <v>2.2777777777777777</v>
       </c>
-      <c r="W38" s="4">
-        <f t="shared" si="10"/>
+      <c r="X38" s="4">
+        <f t="shared" si="11"/>
         <v>0.28751753155680226</v>
       </c>
-      <c r="X38" s="4">
+      <c r="Y38" s="4">
         <v>25.46602499100322</v>
       </c>
-      <c r="Y38" s="4">
-        <f t="shared" si="11"/>
+      <c r="Z38" s="4">
+        <f t="shared" si="12"/>
+        <v>0.71248246844319774</v>
+      </c>
+      <c r="AA38" s="4">
+        <f t="shared" si="13"/>
         <v>0.54251170210562483</v>
       </c>
-      <c r="Z38" s="4">
+      <c r="AB38" s="4">
         <v>34.111111111111114</v>
       </c>
-      <c r="AA38">
-        <f t="shared" si="12"/>
+      <c r="AC38">
+        <f t="shared" si="14"/>
         <v>0.67045206376938205</v>
       </c>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:29">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -23907,75 +24214,83 @@
       <c r="H39" s="4">
         <v>38246548894.868126</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="4">
         <f t="shared" si="3"/>
+        <v>0.87189287280194028</v>
+      </c>
+      <c r="J39" s="7">
+        <f t="shared" si="4"/>
         <v>0.11230113663462393</v>
       </c>
-      <c r="J39" s="4">
+      <c r="K39" s="4">
         <v>1332302608842.271</v>
       </c>
-      <c r="K39" s="7">
-        <f t="shared" si="4"/>
+      <c r="L39" s="7">
+        <f t="shared" si="5"/>
         <v>6.7079025970896461E-2</v>
       </c>
-      <c r="L39" s="4">
+      <c r="M39" s="4">
         <v>3.0051228186800563</v>
       </c>
-      <c r="M39" s="7">
-        <f t="shared" si="5"/>
+      <c r="N39" s="7">
+        <f t="shared" si="6"/>
         <v>0.28779033788087977</v>
       </c>
-      <c r="N39" s="4">
+      <c r="O39" s="4">
         <v>28672.222222222223</v>
       </c>
-      <c r="O39" s="7">
-        <f t="shared" si="6"/>
+      <c r="P39" s="7">
+        <f t="shared" si="7"/>
         <v>0.31571458409482533</v>
       </c>
-      <c r="P39" s="4">
+      <c r="Q39" s="4">
         <v>20.093053690112026</v>
       </c>
-      <c r="Q39" s="7">
-        <f t="shared" si="7"/>
+      <c r="R39" s="7">
+        <f t="shared" si="8"/>
         <v>0.1826288827642995</v>
       </c>
-      <c r="R39" s="4">
+      <c r="S39" s="4">
         <v>83.169376693766949</v>
       </c>
-      <c r="S39" s="4">
-        <f t="shared" si="8"/>
+      <c r="T39" s="4">
+        <f t="shared" si="9"/>
         <v>0.95564688790651153</v>
       </c>
-      <c r="T39" s="4">
+      <c r="U39" s="4">
         <v>0.34482087230741892</v>
       </c>
-      <c r="U39" s="4">
-        <f t="shared" si="9"/>
+      <c r="V39" s="4">
+        <f t="shared" si="10"/>
         <v>0.20625687307180043</v>
       </c>
-      <c r="V39" s="4">
+      <c r="W39" s="4">
         <v>0.78888888888888897</v>
       </c>
-      <c r="W39" s="4">
-        <f t="shared" si="10"/>
+      <c r="X39" s="4">
+        <f t="shared" si="11"/>
         <v>9.9579242636746168E-2</v>
       </c>
-      <c r="X39" s="4">
+      <c r="Y39" s="4">
         <v>28.367050701888687</v>
       </c>
-      <c r="Y39" s="4">
-        <f t="shared" si="11"/>
+      <c r="Z39" s="4">
+        <f t="shared" si="12"/>
+        <v>0.90042075736325389</v>
+      </c>
+      <c r="AA39" s="4">
+        <f t="shared" si="13"/>
         <v>0.60431327486072384</v>
       </c>
-      <c r="Z39" s="4">
+      <c r="AB39" s="4">
         <v>11.444444444444445</v>
       </c>
-      <c r="AA39">
-        <f t="shared" si="12"/>
+      <c r="AC39">
+        <f t="shared" si="14"/>
         <v>0.22493994321904345</v>
       </c>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:29">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -24003,75 +24318,83 @@
       <c r="H40" s="4">
         <v>19983609239.314034</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="4">
         <f t="shared" si="3"/>
+        <v>0.9174938044879577</v>
+      </c>
+      <c r="J40" s="7">
+        <f t="shared" si="4"/>
         <v>5.8042284363573053E-2</v>
       </c>
-      <c r="J40" s="4">
+      <c r="K40" s="4">
         <v>555848435303.95239</v>
       </c>
-      <c r="K40" s="7">
-        <f t="shared" si="4"/>
+      <c r="L40" s="7">
+        <f t="shared" si="5"/>
         <v>2.7584957232120649E-2</v>
       </c>
-      <c r="L40" s="4">
+      <c r="M40" s="4">
         <v>2.7480845874821251</v>
       </c>
-      <c r="M40" s="7">
-        <f t="shared" si="5"/>
+      <c r="N40" s="7">
+        <f t="shared" si="6"/>
         <v>0.24637741620342621</v>
       </c>
-      <c r="N40" s="4">
+      <c r="O40" s="4">
         <v>57318.888888888891</v>
       </c>
-      <c r="O40" s="7">
-        <f t="shared" si="6"/>
+      <c r="P40" s="7">
+        <f t="shared" si="7"/>
         <v>0.65227664351730974</v>
       </c>
-      <c r="P40" s="4">
+      <c r="Q40" s="4">
         <v>21.9993126134531</v>
       </c>
-      <c r="Q40" s="7">
-        <f t="shared" si="7"/>
+      <c r="R40" s="7">
+        <f t="shared" si="8"/>
         <v>0.22184035063649135</v>
       </c>
-      <c r="R40" s="4">
+      <c r="S40" s="4">
         <v>82.479132791327928</v>
       </c>
-      <c r="S40" s="4">
-        <f t="shared" si="8"/>
+      <c r="T40" s="4">
+        <f t="shared" si="9"/>
         <v>0.92053331818684392</v>
       </c>
-      <c r="T40" s="4">
+      <c r="U40" s="4">
         <v>0.99995388668427765</v>
       </c>
-      <c r="U40" s="4">
-        <f t="shared" si="9"/>
+      <c r="V40" s="4">
+        <f t="shared" si="10"/>
         <v>0.30646912799293907</v>
       </c>
-      <c r="V40" s="4">
+      <c r="W40" s="4">
         <v>0.41111111111111109</v>
       </c>
-      <c r="W40" s="4">
-        <f t="shared" si="10"/>
+      <c r="X40" s="4">
+        <f t="shared" si="11"/>
         <v>5.1893408134642355E-2</v>
       </c>
-      <c r="X40" s="4">
+      <c r="Y40" s="4">
         <v>32.689975479575018</v>
       </c>
-      <c r="Y40" s="4">
-        <f t="shared" si="11"/>
+      <c r="Z40" s="4">
+        <f t="shared" si="12"/>
+        <v>0.94810659186535762</v>
+      </c>
+      <c r="AA40" s="4">
+        <f t="shared" si="13"/>
         <v>0.69640606437325003</v>
       </c>
-      <c r="Z40" s="4">
+      <c r="AB40" s="4">
         <v>7.5555555555555554</v>
       </c>
-      <c r="AA40">
-        <f t="shared" si="12"/>
+      <c r="AC40">
+        <f t="shared" si="14"/>
         <v>0.14850404018344615</v>
       </c>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:29">
       <c r="A41" t="s">
         <v>53</v>
       </c>
@@ -24099,75 +24422,83 @@
       <c r="H41" s="4">
         <v>77979989583.426193</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="4">
         <f t="shared" si="3"/>
+        <v>0.8910213913431676</v>
+      </c>
+      <c r="J41" s="7">
+        <f t="shared" si="4"/>
         <v>0.23034844606026661</v>
       </c>
-      <c r="J41" s="4">
+      <c r="K41" s="4">
         <v>721942092384.1377</v>
       </c>
-      <c r="K41" s="7">
-        <f t="shared" si="4"/>
+      <c r="L41" s="7">
+        <f t="shared" si="5"/>
         <v>3.6033252744406628E-2</v>
       </c>
-      <c r="L41" s="4">
+      <c r="M41" s="4">
         <v>2.1802858674471923</v>
       </c>
-      <c r="M41" s="7">
-        <f t="shared" si="5"/>
+      <c r="N41" s="7">
+        <f t="shared" si="6"/>
         <v>0.1548960680328576</v>
       </c>
-      <c r="N41" s="4">
+      <c r="O41" s="4">
         <v>86258.888888888891</v>
       </c>
-      <c r="O41" s="7">
-        <f t="shared" si="6"/>
+      <c r="P41" s="7">
+        <f t="shared" si="7"/>
         <v>0.99228499817241911</v>
       </c>
-      <c r="P41" s="4">
+      <c r="Q41" s="4">
         <v>24.454496172848287</v>
       </c>
-      <c r="Q41" s="7">
-        <f t="shared" si="7"/>
+      <c r="R41" s="7">
+        <f t="shared" si="8"/>
         <v>0.27234311816758022</v>
       </c>
-      <c r="R41" s="4">
+      <c r="S41" s="4">
         <v>83.395121951219551</v>
       </c>
-      <c r="S41" s="4">
-        <f t="shared" si="8"/>
+      <c r="T41" s="4">
+        <f t="shared" si="9"/>
         <v>0.9671308312031297</v>
       </c>
-      <c r="T41" s="4">
+      <c r="U41" s="4">
         <v>0.94072487468172428</v>
       </c>
-      <c r="U41" s="4">
-        <f t="shared" si="9"/>
+      <c r="V41" s="4">
+        <f t="shared" si="10"/>
         <v>0.29740917723595778</v>
       </c>
-      <c r="V41" s="4">
+      <c r="W41" s="4">
         <v>0</v>
       </c>
-      <c r="W41" s="4">
-        <f t="shared" si="10"/>
+      <c r="X41" s="4">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="X41" s="4">
+      <c r="Y41" s="4">
         <v>17.795090321696804</v>
       </c>
-      <c r="Y41" s="4">
-        <f t="shared" si="11"/>
+      <c r="Z41" s="4">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AA41" s="4">
+        <f t="shared" si="13"/>
         <v>0.37909507836255163</v>
       </c>
-      <c r="Z41" s="4">
+      <c r="AB41" s="4">
         <v>8.6666666666666661</v>
       </c>
-      <c r="AA41">
-        <f t="shared" si="12"/>
+      <c r="AC41">
+        <f t="shared" si="14"/>
         <v>0.17034286962218823</v>
       </c>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" spans="1:29">
       <c r="A42" t="s">
         <v>54</v>
       </c>
@@ -24195,75 +24526,83 @@
       <c r="H42" s="4">
         <v>823531387.60664785</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I42" s="4">
         <f t="shared" si="3"/>
+        <v>0.95697508622470295</v>
+      </c>
+      <c r="J42" s="7">
+        <f t="shared" si="4"/>
         <v>1.11805128472901E-3</v>
       </c>
-      <c r="J42" s="4">
+      <c r="K42" s="4">
         <v>45008524294.888763</v>
       </c>
-      <c r="K42" s="7">
-        <f t="shared" si="4"/>
+      <c r="L42" s="7">
+        <f t="shared" si="5"/>
         <v>1.6012646363767267E-3</v>
       </c>
-      <c r="L42" s="4">
+      <c r="M42" s="4">
         <v>2.2833358784176596</v>
       </c>
-      <c r="M42" s="7">
-        <f t="shared" si="5"/>
+      <c r="N42" s="7">
+        <f t="shared" si="6"/>
         <v>0.17149905356264225</v>
       </c>
-      <c r="N42" s="4">
+      <c r="O42" s="4">
         <v>3782.2222222222222</v>
       </c>
-      <c r="O42" s="7">
-        <f t="shared" si="6"/>
+      <c r="P42" s="7">
+        <f t="shared" si="7"/>
         <v>2.328860111743512E-2</v>
       </c>
-      <c r="P42" s="4">
+      <c r="Q42" s="4">
         <v>24.485673376683952</v>
       </c>
-      <c r="Q42" s="7">
-        <f t="shared" si="7"/>
+      <c r="R42" s="7">
+        <f t="shared" si="8"/>
         <v>0.27298442870078116</v>
       </c>
-      <c r="R42" s="4">
+      <c r="S42" s="4">
         <v>75.51444444444445</v>
       </c>
-      <c r="S42" s="4">
-        <f t="shared" si="8"/>
+      <c r="T42" s="4">
+        <f t="shared" si="9"/>
         <v>0.56623092017956289</v>
       </c>
-      <c r="T42" s="4">
+      <c r="U42" s="4">
         <v>1.0328696536957713</v>
       </c>
-      <c r="U42" s="4">
-        <f t="shared" si="9"/>
+      <c r="V42" s="4">
+        <f t="shared" si="10"/>
         <v>0.31150407992223256</v>
       </c>
-      <c r="V42" s="4">
+      <c r="W42" s="4">
         <v>1.1111111111111112E-2</v>
       </c>
-      <c r="W42" s="4">
-        <f t="shared" si="10"/>
+      <c r="X42" s="4">
+        <f t="shared" si="11"/>
         <v>1.4025245441795233E-3</v>
       </c>
-      <c r="X42" s="4">
+      <c r="Y42" s="4">
         <v>0</v>
       </c>
-      <c r="Y42" s="4">
-        <f t="shared" si="11"/>
+      <c r="Z42" s="4">
+        <f t="shared" si="12"/>
+        <v>0.99859747545582045</v>
+      </c>
+      <c r="AA42" s="4">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z42" s="4">
+      <c r="AB42" s="4">
         <v>9.2222222222222214</v>
       </c>
-      <c r="AA42">
-        <f t="shared" si="12"/>
+      <c r="AC42">
+        <f t="shared" si="14"/>
         <v>0.18126228434155928</v>
       </c>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:29">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -24291,75 +24630,83 @@
       <c r="H43" s="4">
         <v>12690222222.222221</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="4">
         <f t="shared" si="3"/>
+        <v>0.8940104473961501</v>
+      </c>
+      <c r="J43" s="7">
+        <f t="shared" si="4"/>
         <v>3.6373767893628076E-2</v>
       </c>
-      <c r="J43" s="4">
+      <c r="K43" s="4">
         <v>840830598441.0907</v>
       </c>
-      <c r="K43" s="7">
-        <f t="shared" si="4"/>
+      <c r="L43" s="7">
+        <f t="shared" si="5"/>
         <v>4.2080474834883218E-2</v>
       </c>
-      <c r="L43" s="4">
+      <c r="M43" s="4">
         <v>5.2657916522274695</v>
       </c>
-      <c r="M43" s="7">
-        <f t="shared" si="5"/>
+      <c r="N43" s="7">
+        <f t="shared" si="6"/>
         <v>0.65201981808714116</v>
       </c>
-      <c r="N43" s="4">
+      <c r="O43" s="4">
         <v>10873.333333333334</v>
       </c>
-      <c r="O43" s="7">
-        <f t="shared" si="6"/>
+      <c r="P43" s="7">
+        <f t="shared" si="7"/>
         <v>0.10660017753642108</v>
       </c>
-      <c r="P43" s="4">
+      <c r="Q43" s="4">
         <v>28.516448711766252</v>
       </c>
-      <c r="Q43" s="7">
-        <f t="shared" si="7"/>
+      <c r="R43" s="7">
+        <f t="shared" si="8"/>
         <v>0.35589688913117545</v>
       </c>
-      <c r="R43" s="4">
+      <c r="S43" s="4">
         <v>76.731777777777779</v>
       </c>
-      <c r="S43" s="4">
-        <f t="shared" si="8"/>
+      <c r="T43" s="4">
+        <f t="shared" si="9"/>
         <v>0.62815818780341759</v>
       </c>
-      <c r="T43" s="4">
+      <c r="U43" s="4">
         <v>1.3202775390858257</v>
       </c>
-      <c r="U43" s="4">
-        <f t="shared" si="9"/>
+      <c r="V43" s="4">
+        <f t="shared" si="10"/>
         <v>0.35546735401314195</v>
       </c>
-      <c r="V43" s="4">
+      <c r="W43" s="4">
         <v>0.15555555555555556</v>
       </c>
-      <c r="W43" s="4">
-        <f t="shared" si="10"/>
+      <c r="X43" s="4">
+        <f t="shared" si="11"/>
         <v>1.9635343618513327E-2</v>
       </c>
-      <c r="X43" s="4">
+      <c r="Y43" s="4">
         <v>30.39935633277307</v>
       </c>
-      <c r="Y43" s="4">
-        <f t="shared" si="11"/>
+      <c r="Z43" s="4">
+        <f t="shared" si="12"/>
+        <v>0.98036465638148662</v>
+      </c>
+      <c r="AA43" s="4">
+        <f t="shared" si="13"/>
         <v>0.64760819770005384</v>
       </c>
-      <c r="Z43" s="4">
+      <c r="AB43" s="4">
         <v>7.3888888888888893</v>
       </c>
-      <c r="AA43">
-        <f t="shared" si="12"/>
+      <c r="AC43">
+        <f t="shared" si="14"/>
         <v>0.14522821576763487</v>
       </c>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:29">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -24387,75 +24734,83 @@
       <c r="H44" s="4">
         <v>13128653772.133335</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I44" s="4">
         <f t="shared" si="3"/>
+        <v>0.39476003396488912</v>
+      </c>
+      <c r="J44" s="7">
+        <f t="shared" si="4"/>
         <v>3.7676339831457392E-2</v>
       </c>
-      <c r="J44" s="4">
+      <c r="K44" s="4">
         <v>394878361802.52557</v>
       </c>
-      <c r="K44" s="7">
-        <f t="shared" si="4"/>
+      <c r="L44" s="7">
+        <f t="shared" si="5"/>
         <v>1.939727099845601E-2</v>
       </c>
-      <c r="L44" s="4">
+      <c r="M44" s="4">
         <v>3.5803927431408002</v>
       </c>
-      <c r="M44" s="7">
-        <f t="shared" si="5"/>
+      <c r="N44" s="7">
+        <f t="shared" si="6"/>
         <v>0.38047541517096645</v>
       </c>
-      <c r="N44" s="4">
+      <c r="O44" s="4">
         <v>39824.444444444445</v>
       </c>
-      <c r="O44" s="7">
-        <f t="shared" si="6"/>
+      <c r="P44" s="7">
+        <f t="shared" si="7"/>
         <v>0.44673907367761473</v>
       </c>
-      <c r="P44" s="4">
+      <c r="Q44" s="4">
         <v>46.022819729631259</v>
       </c>
-      <c r="Q44" s="7">
-        <f t="shared" si="7"/>
+      <c r="R44" s="7">
+        <f t="shared" si="8"/>
         <v>0.71600038625870721</v>
       </c>
-      <c r="R44" s="4">
+      <c r="S44" s="4">
         <v>79.218666666666678</v>
       </c>
-      <c r="S44" s="4">
-        <f t="shared" si="8"/>
+      <c r="T44" s="4">
+        <f t="shared" si="9"/>
         <v>0.75466933274291437</v>
       </c>
-      <c r="T44" s="4">
+      <c r="U44" s="4">
         <v>0.86340526009065366</v>
       </c>
-      <c r="U44" s="4">
-        <f t="shared" si="9"/>
+      <c r="V44" s="4">
+        <f t="shared" si="10"/>
         <v>0.28558200205509077</v>
       </c>
-      <c r="V44" s="4">
+      <c r="W44" s="4">
         <v>0</v>
       </c>
-      <c r="W44" s="4">
-        <f t="shared" si="10"/>
+      <c r="X44" s="4">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="X44" s="4">
+      <c r="Y44" s="4">
         <v>3.9466498227867675</v>
       </c>
-      <c r="Y44" s="4">
-        <f t="shared" si="11"/>
+      <c r="Z44" s="4">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AA44" s="4">
+        <f t="shared" si="13"/>
         <v>8.4076871586018356E-2</v>
       </c>
-      <c r="Z44" s="4">
+      <c r="AB44" s="4">
         <v>5.4555555555555548</v>
       </c>
-      <c r="AA44">
-        <f t="shared" si="12"/>
+      <c r="AC44">
+        <f t="shared" si="14"/>
         <v>0.1072286525442236</v>
       </c>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:29">
       <c r="A45" t="s">
         <v>57</v>
       </c>
@@ -24483,75 +24838,83 @@
       <c r="H45" s="4">
         <v>95882273424.935776</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I45" s="4">
         <f t="shared" si="3"/>
+        <v>0.85367969464310323</v>
+      </c>
+      <c r="J45" s="7">
+        <f t="shared" si="4"/>
         <v>0.28353579665064554</v>
       </c>
-      <c r="J45" s="4">
+      <c r="K45" s="4">
         <v>2860072449671.4595</v>
       </c>
-      <c r="K45" s="7">
-        <f t="shared" si="4"/>
+      <c r="L45" s="7">
+        <f t="shared" si="5"/>
         <v>0.14478850216029687</v>
       </c>
-      <c r="L45" s="4">
+      <c r="M45" s="4">
         <v>2.856960738637409</v>
       </c>
-      <c r="M45" s="7">
-        <f t="shared" si="5"/>
+      <c r="N45" s="7">
+        <f t="shared" si="6"/>
         <v>0.26391908500235411</v>
       </c>
-      <c r="N45" s="4">
+      <c r="O45" s="4">
         <v>42821.111111111109</v>
       </c>
-      <c r="O45" s="7">
-        <f t="shared" si="6"/>
+      <c r="P45" s="7">
+        <f t="shared" si="7"/>
         <v>0.48194611247454433</v>
       </c>
-      <c r="P45" s="4">
+      <c r="Q45" s="4">
         <v>17.760196862891156</v>
       </c>
-      <c r="Q45" s="7">
-        <f t="shared" si="7"/>
+      <c r="R45" s="7">
+        <f t="shared" si="8"/>
         <v>0.13464235826285978</v>
       </c>
-      <c r="R45" s="4">
+      <c r="S45" s="4">
         <v>81.043360433604335</v>
       </c>
-      <c r="S45" s="4">
-        <f t="shared" si="8"/>
+      <c r="T45" s="4">
+        <f t="shared" si="9"/>
         <v>0.84749378447078527</v>
       </c>
-      <c r="T45" s="4">
+      <c r="U45" s="4">
         <v>0.61518895024352893</v>
       </c>
-      <c r="U45" s="4">
-        <f t="shared" si="9"/>
+      <c r="V45" s="4">
+        <f t="shared" si="10"/>
         <v>0.2476136573493305</v>
       </c>
-      <c r="V45" s="4">
+      <c r="W45" s="4">
         <v>0.27777777777777779</v>
       </c>
-      <c r="W45" s="4">
-        <f t="shared" si="10"/>
+      <c r="X45" s="4">
+        <f t="shared" si="11"/>
         <v>3.5063113604488085E-2</v>
       </c>
-      <c r="X45" s="4">
+      <c r="Y45" s="4">
         <v>33.647722987400847</v>
       </c>
-      <c r="Y45" s="4">
-        <f t="shared" si="11"/>
+      <c r="Z45" s="4">
+        <f t="shared" si="12"/>
+        <v>0.96493688639551189</v>
+      </c>
+      <c r="AA45" s="4">
+        <f t="shared" si="13"/>
         <v>0.71680929694847817</v>
       </c>
-      <c r="Z45" s="4">
+      <c r="AB45" s="4">
         <v>4.4444444444444446</v>
       </c>
-      <c r="AA45">
-        <f t="shared" si="12"/>
+      <c r="AC45">
+        <f t="shared" si="14"/>
         <v>8.735531775496834E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:27">
+    <row r="46" spans="1:29">
       <c r="A46" t="s">
         <v>58</v>
       </c>
@@ -24579,75 +24942,83 @@
       <c r="H46" s="4">
         <v>337036333333.33331</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I46" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J46" s="4">
-        <v>19673547433666.668</v>
-      </c>
-      <c r="K46" s="7">
+        <v>0.56881507217801297</v>
+      </c>
+      <c r="J46" s="7">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L46" s="4">
+      <c r="K46" s="4">
+        <v>19673547433666.668</v>
+      </c>
+      <c r="L46" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M46" s="4">
         <v>2.1292133733578513</v>
       </c>
-      <c r="M46" s="7">
-        <f t="shared" si="5"/>
+      <c r="N46" s="7">
+        <f t="shared" si="6"/>
         <v>0.14666748200603658</v>
       </c>
-      <c r="N46" s="4">
+      <c r="O46" s="4">
         <v>60882.222222222219</v>
       </c>
-      <c r="O46" s="7">
-        <f t="shared" si="6"/>
+      <c r="P46" s="7">
+        <f t="shared" si="7"/>
         <v>0.69414129810453751</v>
       </c>
-      <c r="P46" s="4">
+      <c r="Q46" s="4">
         <v>18.438036307668476</v>
       </c>
-      <c r="Q46" s="7">
-        <f t="shared" si="7"/>
+      <c r="R46" s="7">
+        <f t="shared" si="8"/>
         <v>0.14858541672461661</v>
       </c>
-      <c r="R46" s="4">
+      <c r="S46" s="4">
         <v>78.231978319783195</v>
       </c>
-      <c r="S46" s="4">
-        <f t="shared" si="8"/>
+      <c r="T46" s="4">
+        <f t="shared" si="9"/>
         <v>0.70447526375157332</v>
       </c>
-      <c r="T46" s="4">
+      <c r="U46" s="4">
         <v>0.62012859983731417</v>
       </c>
-      <c r="U46" s="4">
-        <f t="shared" si="9"/>
+      <c r="V46" s="4">
+        <f t="shared" si="10"/>
         <v>0.24836924959311987</v>
       </c>
-      <c r="V46" s="4">
+      <c r="W46" s="4">
         <v>0.8666666666666667</v>
       </c>
-      <c r="W46" s="4">
-        <f t="shared" si="10"/>
+      <c r="X46" s="4">
+        <f t="shared" si="11"/>
         <v>0.10939691444600282</v>
       </c>
-      <c r="X46" s="4">
+      <c r="Y46" s="4">
         <v>18.480394746485487</v>
       </c>
-      <c r="Y46" s="4">
-        <f t="shared" si="11"/>
+      <c r="Z46" s="4">
+        <f t="shared" si="12"/>
+        <v>0.89060308555399714</v>
+      </c>
+      <c r="AA46" s="4">
+        <f t="shared" si="13"/>
         <v>0.39369435995769542</v>
       </c>
-      <c r="Z46" s="4">
+      <c r="AB46" s="4">
         <v>4.2666666666666675</v>
       </c>
-      <c r="AA46">
-        <f t="shared" si="12"/>
+      <c r="AC46">
+        <f t="shared" si="14"/>
         <v>8.386110504476961E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" spans="1:29">
       <c r="A47" s="5" t="s">
         <v>59</v>
       </c>
@@ -24675,75 +25046,83 @@
       <c r="H47" s="6">
         <v>2224424997.8749075</v>
       </c>
-      <c r="I47" s="7">
+      <c r="I47" s="4">
         <f t="shared" si="3"/>
+        <v>0.97528989639963515</v>
+      </c>
+      <c r="J47" s="7">
+        <f t="shared" si="4"/>
         <v>5.280080009600163E-3</v>
       </c>
-      <c r="J47" s="6">
+      <c r="K47" s="6">
         <v>58682066435.175797</v>
       </c>
-      <c r="K47" s="7">
-        <f t="shared" si="4"/>
+      <c r="L47" s="7">
+        <f t="shared" si="5"/>
         <v>2.2967645533005336E-3</v>
       </c>
-      <c r="L47" s="6">
+      <c r="M47" s="6">
         <v>2.0949983643356842</v>
       </c>
-      <c r="M47" s="7">
-        <f t="shared" si="5"/>
+      <c r="N47" s="7">
+        <f t="shared" si="6"/>
         <v>0.14115490326541624</v>
       </c>
-      <c r="N47" s="6">
+      <c r="O47" s="6">
         <v>16188.888888888889</v>
       </c>
-      <c r="O47" s="7">
-        <f t="shared" si="6"/>
+      <c r="P47" s="7">
+        <f t="shared" si="7"/>
         <v>0.16905122447913945</v>
       </c>
-      <c r="P47" s="6">
+      <c r="Q47" s="6">
         <v>20.391411602171679</v>
       </c>
-      <c r="Q47" s="7">
-        <f t="shared" si="7"/>
+      <c r="R47" s="7">
+        <f t="shared" si="8"/>
         <v>0.18876606147590735</v>
       </c>
-      <c r="R47" s="6">
+      <c r="S47" s="6">
         <v>77.363333333333344</v>
       </c>
-      <c r="S47" s="4">
-        <f t="shared" si="8"/>
+      <c r="T47" s="4">
+        <f t="shared" si="9"/>
         <v>0.66028620799089444</v>
       </c>
-      <c r="T47" s="6">
+      <c r="U47" s="6">
         <v>0.21306079653822349</v>
       </c>
-      <c r="U47" s="4">
-        <f t="shared" si="9"/>
+      <c r="V47" s="4">
+        <f t="shared" si="10"/>
         <v>0.18610222659291653</v>
       </c>
-      <c r="V47" s="6">
+      <c r="W47" s="6">
         <v>0.13333333333333333</v>
       </c>
-      <c r="W47" s="4">
-        <f t="shared" si="10"/>
+      <c r="X47" s="4">
+        <f t="shared" si="11"/>
         <v>1.6830294530154277E-2</v>
       </c>
-      <c r="X47" s="6">
+      <c r="Y47" s="6">
         <v>27.718219377077826</v>
       </c>
-      <c r="Y47" s="4">
-        <f t="shared" si="11"/>
+      <c r="Z47" s="4">
+        <f t="shared" si="12"/>
+        <v>0.98316970546984572</v>
+      </c>
+      <c r="AA47" s="4">
+        <f t="shared" si="13"/>
         <v>0.59049099256394044</v>
       </c>
-      <c r="Z47" s="6">
+      <c r="AB47" s="6">
         <v>5.0555555555555554</v>
       </c>
-      <c r="AA47">
-        <f t="shared" si="12"/>
+      <c r="AC47">
+        <f t="shared" si="14"/>
         <v>9.9366673946276476E-2</v>
       </c>
     </row>
-    <row r="49" spans="2:26">
+    <row r="49" spans="2:28">
       <c r="B49" s="4">
         <f>MAX(B2:B47)</f>
         <v>16.760598764769679</v>
@@ -24754,85 +25133,93 @@
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4">
-        <f t="shared" ref="F49" si="13">MAX(F2:F47)</f>
+        <f t="shared" ref="F49:I49" si="15">MAX(F2:F47)</f>
         <v>26.575465151741302</v>
       </c>
-      <c r="G49" s="4"/>
+      <c r="G49" s="4">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
       <c r="H49" s="4">
-        <f t="shared" ref="H49" si="14">MAX(H2:H47)</f>
+        <f t="shared" si="15"/>
         <v>337036333333.33331</v>
       </c>
       <c r="I49" s="4">
-        <f t="shared" ref="I49:J49" si="15">MAX(I2:I47)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="J49" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="J49:K49" si="16">MAX(J2:J47)</f>
+        <v>1</v>
+      </c>
+      <c r="K49" s="4">
+        <f t="shared" si="16"/>
         <v>19673547433666.668</v>
       </c>
-      <c r="K49" s="4">
-        <f t="shared" ref="K49:L49" si="16">MAX(K2:K47)</f>
+      <c r="L49" s="4">
+        <f t="shared" ref="L49:M49" si="17">MAX(L2:L47)</f>
         <v>1</v>
       </c>
-      <c r="L49" s="4">
-        <f t="shared" si="16"/>
+      <c r="M49" s="4">
+        <f t="shared" si="17"/>
         <v>7.4256057109276963</v>
       </c>
-      <c r="M49" s="4">
-        <f t="shared" ref="M49:N49" si="17">MAX(M2:M47)</f>
+      <c r="N49" s="4">
+        <f t="shared" ref="N49:O49" si="18">MAX(N2:N47)</f>
         <v>1</v>
       </c>
-      <c r="N49" s="4">
-        <f t="shared" si="17"/>
+      <c r="O49" s="4">
+        <f t="shared" si="18"/>
         <v>86915.555555555562</v>
       </c>
-      <c r="O49" s="4">
-        <f t="shared" ref="O49:P49" si="18">MAX(O2:O47)</f>
+      <c r="P49" s="4">
+        <f t="shared" ref="P49:Q49" si="19">MAX(P2:P47)</f>
         <v>1</v>
       </c>
-      <c r="P49" s="4">
-        <f t="shared" si="18"/>
+      <c r="Q49" s="4">
+        <f t="shared" si="19"/>
         <v>59.829413241619967</v>
       </c>
-      <c r="Q49" s="4">
-        <f t="shared" ref="Q49:R49" si="19">MAX(Q2:Q47)</f>
+      <c r="R49" s="4">
+        <f t="shared" ref="R49:S49" si="20">MAX(R2:R47)</f>
         <v>1</v>
       </c>
-      <c r="R49" s="4">
-        <f t="shared" si="19"/>
+      <c r="S49" s="4">
+        <f t="shared" si="20"/>
         <v>84.041246612466139</v>
       </c>
-      <c r="S49" s="4">
-        <f t="shared" ref="S49:V49" si="20">MAX(S2:S47)</f>
+      <c r="T49" s="4">
+        <f t="shared" ref="T49:W49" si="21">MAX(T2:T47)</f>
         <v>1</v>
       </c>
-      <c r="T49" s="4">
-        <f t="shared" si="20"/>
+      <c r="U49" s="4">
+        <f t="shared" si="21"/>
         <v>5.5338801125630273</v>
       </c>
-      <c r="U49" s="4"/>
-      <c r="V49" s="4">
-        <f t="shared" si="20"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4">
+        <f t="shared" si="21"/>
         <v>7.9222222222222216</v>
       </c>
-      <c r="W49" s="4">
-        <f t="shared" ref="W49:X49" si="21">MAX(W2:W47)</f>
+      <c r="X49" s="4">
+        <f t="shared" ref="X49:Y49" si="22">MAX(X2:X47)</f>
         <v>1</v>
       </c>
-      <c r="X49" s="4">
-        <f t="shared" si="21"/>
+      <c r="Y49" s="4">
+        <f t="shared" si="22"/>
         <v>46.940969000600631</v>
       </c>
-      <c r="Y49" s="4">
-        <f t="shared" ref="Y49:Z49" si="22">MAX(Y2:Y47)</f>
+      <c r="Z49" s="4"/>
+      <c r="AA49" s="4">
+        <f t="shared" ref="AA49:AB49" si="23">MAX(AA2:AA47)</f>
         <v>1</v>
       </c>
-      <c r="Z49" s="4">
-        <f t="shared" si="22"/>
+      <c r="AB49" s="4">
+        <f t="shared" si="23"/>
         <v>50.87777777777778</v>
       </c>
     </row>
-    <row r="50" spans="2:26">
+    <row r="50" spans="2:28">
       <c r="B50" s="4">
         <f>MIN(B2:B47)</f>
         <v>3.2562384283033784E-2</v>
@@ -24843,80 +25230,88 @@
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4">
-        <f t="shared" ref="F50" si="23">MIN(F2:F47)</f>
+        <f t="shared" ref="F50:I50" si="24">MIN(F2:F47)</f>
         <v>0.86940892829958605</v>
       </c>
-      <c r="G50" s="4"/>
+      <c r="G50" s="4">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
       <c r="H50" s="4">
-        <f t="shared" ref="H50" si="24">MIN(H2:H47)</f>
+        <f t="shared" si="24"/>
         <v>447207483.02389497</v>
       </c>
       <c r="I50" s="4">
-        <f t="shared" ref="I50:J50" si="25">MIN(I2:I47)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="J50" s="4">
+        <f t="shared" ref="J50:K50" si="25">MIN(J2:J47)</f>
+        <v>0</v>
+      </c>
+      <c r="K50" s="4">
         <f t="shared" si="25"/>
         <v>13527629832.543068</v>
       </c>
-      <c r="K50" s="4">
-        <f t="shared" ref="K50:L50" si="26">MIN(K2:K47)</f>
+      <c r="L50" s="4">
+        <f t="shared" ref="L50:M50" si="26">MIN(L2:L47)</f>
         <v>0</v>
       </c>
-      <c r="L50" s="4">
+      <c r="M50" s="4">
         <f t="shared" si="26"/>
         <v>1.2188900099712348</v>
       </c>
-      <c r="M50" s="4">
-        <f t="shared" ref="M50:N50" si="27">MIN(M2:M47)</f>
+      <c r="N50" s="4">
+        <f t="shared" ref="N50:O50" si="27">MIN(N2:N47)</f>
         <v>0</v>
       </c>
-      <c r="N50" s="4">
+      <c r="O50" s="4">
         <f t="shared" si="27"/>
         <v>1800</v>
       </c>
-      <c r="O50" s="4">
-        <f t="shared" ref="O50:P50" si="28">MIN(O2:O47)</f>
+      <c r="P50" s="4">
+        <f t="shared" ref="P50:Q50" si="28">MIN(P2:P47)</f>
         <v>0</v>
       </c>
-      <c r="P50" s="4">
+      <c r="Q50" s="4">
         <f t="shared" si="28"/>
         <v>11.214581234961967</v>
       </c>
-      <c r="Q50" s="4">
-        <f t="shared" ref="Q50:R50" si="29">MIN(Q2:Q47)</f>
+      <c r="R50" s="4">
+        <f t="shared" ref="R50:S50" si="29">MIN(R2:R47)</f>
         <v>0</v>
       </c>
-      <c r="R50" s="4">
+      <c r="S50" s="4">
         <f t="shared" si="29"/>
         <v>64.38377777777778</v>
       </c>
-      <c r="S50" s="4">
-        <f t="shared" ref="S50:V50" si="30">MIN(S2:S47)</f>
+      <c r="T50" s="4">
+        <f t="shared" ref="T50:W50" si="30">MIN(T2:T47)</f>
         <v>0</v>
       </c>
-      <c r="T50" s="4">
+      <c r="U50" s="4">
         <f t="shared" si="30"/>
         <v>-1.0035739632125487</v>
       </c>
-      <c r="U50" s="4"/>
-      <c r="V50" s="4">
+      <c r="V50" s="4"/>
+      <c r="W50" s="4">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="W50" s="4">
-        <f t="shared" ref="W50:X50" si="31">MIN(W2:W47)</f>
+      <c r="X50" s="4">
+        <f t="shared" ref="X50:Y50" si="31">MIN(X2:X47)</f>
         <v>0</v>
       </c>
-      <c r="X50" s="4">
+      <c r="Y50" s="4">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="Y50" s="4">
-        <f t="shared" ref="Y50:Z50" si="32">MIN(Y2:Y47)</f>
+      <c r="Z50" s="4"/>
+      <c r="AA50" s="4">
+        <f t="shared" ref="AA50:AB50" si="32">MIN(AA2:AA47)</f>
         <v>0</v>
       </c>
-      <c r="Z50" s="4">
+      <c r="AB50" s="4">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26611"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9DEE3AE-A300-4F90-83E7-EE3C31B4A393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91EE4B0B-CD74-43E3-9E6A-193F209D3D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="9384" r:id="rId5"/>
+    <pivotCache cacheId="9551" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -12559,7 +12559,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C792213D-BFFD-44B9-8EF0-624985067898}" name="PivotTable1" cacheId="9384" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C792213D-BFFD-44B9-8EF0-624985067898}" name="PivotTable1" cacheId="9551" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A1:R50" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending">
@@ -13227,8 +13227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7914BB-89FE-4826-8219-C48CE4787F91}">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="H22" workbookViewId="0">
+      <selection activeCell="Q47" sqref="O1:Q47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13334,7 +13334,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.28827254859139545</v>
+        <v>0.71172745140860449</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -13378,7 +13378,7 @@
         <v>0.42279793873147947</v>
       </c>
       <c r="N3">
-        <v>0.31666302686176018</v>
+        <v>0.68333697313823982</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -13422,7 +13422,7 @@
         <v>0.53508771869527072</v>
       </c>
       <c r="N4">
-        <v>3.7126010045861538E-2</v>
+        <v>0.96287398995413842</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -13466,7 +13466,7 @@
         <v>0.94160023590597985</v>
       </c>
       <c r="N5">
-        <v>0.33413409041275388</v>
+        <v>0.66586590958724612</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -13510,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.13387202445948895</v>
+        <v>0.86612797554051102</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -13554,7 +13554,7 @@
         <v>0.84119062852240079</v>
       </c>
       <c r="N7">
-        <v>6.9884254203974663E-2</v>
+        <v>0.9301157457960253</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -13598,7 +13598,7 @@
         <v>0.60375010098274173</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0.86757515429999998</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -13642,7 +13642,7 @@
         <v>0.71314484804463429</v>
       </c>
       <c r="N9">
-        <v>0.36470845162699284</v>
+        <v>0.63529154837300716</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -13686,7 +13686,7 @@
         <v>0.38558665412995757</v>
       </c>
       <c r="N10">
-        <v>4.040183446167285E-2</v>
+        <v>0.95959816553832711</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -13730,7 +13730,7 @@
         <v>0.2865373999808406</v>
       </c>
       <c r="N11">
-        <v>0.36711072286525437</v>
+        <v>0.63288927713474563</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -13774,7 +13774,7 @@
         <v>0.81118674364443366</v>
       </c>
       <c r="N12">
-        <v>0.33740991482856519</v>
+        <v>0.66259008517143481</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -13818,7 +13818,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.54545467000000003</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -13862,7 +13862,7 @@
         <v>0.85340139718030927</v>
       </c>
       <c r="N14">
-        <v>6.4424546844289138E-2</v>
+        <v>0.93557545315571089</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -13906,7 +13906,7 @@
         <v>0.14742309567141701</v>
       </c>
       <c r="N15">
-        <v>0.21511246997160952</v>
+        <v>0.78488753002839051</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -13950,7 +13950,7 @@
         <v>0.78584356692975121</v>
       </c>
       <c r="N16">
-        <v>0.25114653854553398</v>
+        <v>0.74885346145446596</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -13994,7 +13994,7 @@
         <v>0.93073878478092409</v>
       </c>
       <c r="N17">
-        <v>6.4424546844289138E-2</v>
+        <v>0.93557545315571089</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -14038,7 +14038,7 @@
         <v>0.61270163762588714</v>
       </c>
       <c r="N18">
-        <v>0.15614763048700589</v>
+        <v>0.84385236951299414</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -14082,7 +14082,7 @@
         <v>1</v>
       </c>
       <c r="N19">
-        <v>0.17907840139768508</v>
+        <v>0.82092159860231495</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -14126,7 +14126,7 @@
         <v>0.1783354167819266</v>
       </c>
       <c r="N20">
-        <v>0.41471937104171219</v>
+        <v>0.58528062895828781</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -14170,7 +14170,7 @@
         <v>0.27206912632762054</v>
       </c>
       <c r="N21">
-        <v>0.57763703865472826</v>
+        <v>0.42236296134527174</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -14214,7 +14214,7 @@
         <v>0.67287143447119047</v>
       </c>
       <c r="N22">
-        <v>0.17471063550993668</v>
+        <v>0.82528936449006329</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -14258,7 +14258,7 @@
         <v>0.85366771359456639</v>
       </c>
       <c r="N23">
-        <v>0.17252675256606248</v>
+        <v>0.82747324743393746</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -14302,7 +14302,7 @@
         <v>0.42998301514486714</v>
       </c>
       <c r="N24">
-        <v>0.17230836427167504</v>
+        <v>0.82769163572832494</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -14346,7 +14346,7 @@
         <v>0.57080720261721862</v>
       </c>
       <c r="N25">
-        <v>0.12229744485695566</v>
+        <v>0.87770255514304429</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -14390,7 +14390,7 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>0.54553395937977722</v>
+        <v>0.45446604062022278</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -14434,7 +14434,7 @@
         <v>0.86248998628796791</v>
       </c>
       <c r="N27">
-        <v>0.25223848001747107</v>
+        <v>0.74776151998252893</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -14478,7 +14478,7 @@
         <v>0.78876450108398821</v>
       </c>
       <c r="N28">
-        <v>0.38982310548154614</v>
+        <v>0.61017689451845381</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -14522,7 +14522,7 @@
         <v>0.40703220731615058</v>
       </c>
       <c r="N29">
-        <v>0.12841231709980344</v>
+        <v>0.8715876829001965</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -14566,7 +14566,7 @@
         <v>0.83528678295543046</v>
       </c>
       <c r="N30">
-        <v>5.4597073596855207E-2</v>
+        <v>0.94540292640314483</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -14610,7 +14610,7 @@
         <v>0.9908451191956783</v>
       </c>
       <c r="N31">
-        <v>6.7700371260100464E-2</v>
+        <v>0.93229962873989958</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -14654,7 +14654,7 @@
         <v>0.36181649212969863</v>
       </c>
       <c r="N32">
-        <v>0.53505132124918098</v>
+        <v>0.46494867875081902</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -14698,7 +14698,7 @@
         <v>0.41828291103445397</v>
       </c>
       <c r="N33">
-        <v>0.56453374099148279</v>
+        <v>0.43546625900851721</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -14742,7 +14742,7 @@
         <v>0.80241721232683094</v>
       </c>
       <c r="N34">
-        <v>9.499890805852805E-2</v>
+        <v>0.90500109194147194</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -14786,7 +14786,7 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>0.14391788600131034</v>
+        <v>0.85608211399868961</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -14830,7 +14830,7 @@
         <v>0.57058878186274908</v>
       </c>
       <c r="N36">
-        <v>0.30181262284341553</v>
+        <v>0.69818737715658452</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -14874,7 +14874,7 @@
         <v>0.39814915100793841</v>
       </c>
       <c r="N37">
-        <v>3.3850185630050232E-2</v>
+        <v>0.96614981436994973</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -14918,7 +14918,7 @@
         <v>0.54251170210562483</v>
       </c>
       <c r="N38">
-        <v>0.67045206376938205</v>
+        <v>0.32954793623061795</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -14962,7 +14962,7 @@
         <v>0.60431327486072384</v>
       </c>
       <c r="N39">
-        <v>0.22493994321904345</v>
+        <v>0.77506005678095657</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -15006,7 +15006,7 @@
         <v>0.69640606437325003</v>
       </c>
       <c r="N40">
-        <v>0.14850404018344615</v>
+        <v>0.8514959598165539</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -15050,7 +15050,7 @@
         <v>0.37909507836255163</v>
       </c>
       <c r="N41">
-        <v>0.17034286962218823</v>
+        <v>0.82965713037781175</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -15094,7 +15094,7 @@
         <v>0</v>
       </c>
       <c r="N42">
-        <v>0.18126228434155928</v>
+        <v>0.81873771565844078</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -15138,7 +15138,7 @@
         <v>0.64760819770005384</v>
       </c>
       <c r="N43">
-        <v>0.14522821576763487</v>
+        <v>0.85477178423236511</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -15182,7 +15182,7 @@
         <v>8.4076871586018356E-2</v>
       </c>
       <c r="N44">
-        <v>0.1072286525442236</v>
+        <v>0.89277134745577635</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -15226,7 +15226,7 @@
         <v>0.71680929694847817</v>
       </c>
       <c r="N45">
-        <v>8.735531775496834E-2</v>
+        <v>0.9126446822450317</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -15270,7 +15270,7 @@
         <v>0.39369435995769542</v>
       </c>
       <c r="N46">
-        <v>8.386110504476961E-2</v>
+        <v>0.91613889495523038</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -15314,7 +15314,7 @@
         <v>0.59049099256394044</v>
       </c>
       <c r="N47">
-        <v>9.9366673946276476E-2</v>
+        <v>0.90063332605372348</v>
       </c>
     </row>
   </sheetData>
@@ -15326,8 +15326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949762A3-0E4F-411B-8329-91C2F07ED699}">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17428,7 +17428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88343B10-2C24-4F4D-93D7-A480D2D3DE0F}">
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -20215,8 +20215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D65A12-8B9A-4C59-96D3-9C8F36B1BEEC}">
   <dimension ref="A1:AC50"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AC1" sqref="A1:AC47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
